--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEDDC9-ECDD-7D4F-AF72-8A528A95DFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F20928-0E2E-534F-B862-644B3B272056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="3380" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="5040" yWindow="2040" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="639">
   <si>
     <t>Species used in Figures 1B and C</t>
   </si>
@@ -1382,9 +1382,6 @@
     <t>jeotgali</t>
   </si>
   <si>
-    <t>Alteromonas</t>
-  </si>
-  <si>
     <t>macleodii</t>
   </si>
   <si>
@@ -1917,6 +1914,36 @@
   </si>
   <si>
     <t>Pallen_2009_TIMS; Hattori, et al. Crystal structure of the MgtE Mg2+ transporter</t>
+  </si>
+  <si>
+    <t>GCA</t>
+  </si>
+  <si>
+    <t>Liu_Ochman_2007b_FigS2_2eqSecondary "Should be renamed Rhizobium rhizogenes, see PMID: 20627641"</t>
+  </si>
+  <si>
+    <t>The original Agrobacterium tumefaciens C56 (-Uwash, published 2001 Science) is now Agrobacterium fabrum</t>
+  </si>
+  <si>
+    <t>AlishewanellaBacilli; Bacillales_H; Bacillaceae_D</t>
+  </si>
+  <si>
+    <t>now Alkalihalobacillus clausii KSM-K16</t>
+  </si>
+  <si>
+    <t>now Halalkalibacterium halodurans C-125</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Shewanella putrefaciensCN-32</t>
+  </si>
+  <si>
+    <t>putrefaciens CN-32</t>
+  </si>
+  <si>
+    <t>Florian Rossmann et al. (2015). The role of FlhF and HubP as polar landmark proteins inShewanella putrefaciens CN-32. Molecular Microbiology(2015)98(4), 727–742. http://dx.doi.org/10.1111/mmi.13152</t>
   </si>
 </sst>
 </file>
@@ -5084,44 +5111,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5D3D-DF78-3F49-A41C-226229F9925D}">
-  <dimension ref="A1:T290"/>
+  <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="H292" sqref="H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
-    <col min="7" max="7" width="61.1640625" customWidth="1"/>
+    <col min="5" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5137,14 +5167,14 @@
       <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5157,14 +5187,14 @@
       <c r="E3" t="s">
         <v>111</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>283</v>
       </c>
@@ -5180,36 +5210,36 @@
       <c r="E4" t="s">
         <v>433</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>251</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>386</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>278</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>387</v>
       </c>
-      <c r="Q4" t="str">
-        <f>J4&amp;" "&amp;K4&amp;" "&amp;L4&amp;" "&amp;M4&amp;" "&amp;N4&amp;" "&amp;O4&amp;" "&amp;P4</f>
+      <c r="R4" t="str">
+        <f>K4&amp;" "&amp;L4&amp;" "&amp;M4&amp;" "&amp;N4&amp;" "&amp;O4&amp;" "&amp;P4&amp;" "&amp;Q4</f>
         <v xml:space="preserve">Aeromonas hydrophila     </v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>388</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>284</v>
       </c>
@@ -5222,36 +5252,36 @@
       <c r="E5" t="s">
         <v>433</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>241</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>386</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>278</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>387</v>
       </c>
-      <c r="Q5" t="str">
-        <f>J5&amp;" "&amp;K5&amp;" "&amp;L5&amp;" "&amp;M5&amp;" "&amp;N5&amp;" "&amp;O5&amp;" "&amp;P5</f>
+      <c r="R5" t="str">
+        <f>K5&amp;" "&amp;L5&amp;" "&amp;M5&amp;" "&amp;N5&amp;" "&amp;O5&amp;" "&amp;P5&amp;" "&amp;Q5</f>
         <v xml:space="preserve">Aeromonas hydrophila     </v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>390</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5267,14 +5297,14 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>255</v>
       </c>
@@ -5287,45 +5317,45 @@
       <c r="E7" t="s">
         <v>409</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>256</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>242</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>277</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>278</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>279</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>280</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>281</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>282</v>
       </c>
-      <c r="Q7" t="str">
-        <f>J7&amp;" "&amp;K7&amp;" "&amp;L7&amp;" "&amp;M7&amp;" "&amp;N7&amp;" "&amp;O7&amp;" "&amp;P7</f>
+      <c r="R7" t="str">
+        <f>K7&amp;" "&amp;L7&amp;" "&amp;M7&amp;" "&amp;N7&amp;" "&amp;O7&amp;" "&amp;P7&amp;" "&amp;Q7</f>
         <v xml:space="preserve">Aeromonas salmonicida subsp pectinolytica 34mel  </v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>283</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>256</v>
       </c>
@@ -5341,36 +5371,36 @@
       <c r="E8" t="s">
         <v>410</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>252</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>277</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>278</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>285</v>
       </c>
-      <c r="Q8" t="str">
-        <f>J8&amp;" "&amp;K8&amp;" "&amp;L8&amp;" "&amp;M8&amp;" "&amp;N8&amp;" "&amp;O8&amp;" "&amp;P8</f>
+      <c r="R8" t="str">
+        <f>K8&amp;" "&amp;L8&amp;" "&amp;M8&amp;" "&amp;N8&amp;" "&amp;O8&amp;" "&amp;P8&amp;" "&amp;Q8</f>
         <v xml:space="preserve">Aeromonas schubertii     </v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>286</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5386,14 +5416,14 @@
       <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>92</v>
       </c>
@@ -5404,11 +5434,11 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>93</v>
       </c>
@@ -5419,11 +5449,11 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>144</v>
       </c>
@@ -5434,11 +5464,11 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>94</v>
       </c>
@@ -5452,11 +5482,11 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>95</v>
       </c>
@@ -5467,11 +5497,11 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>145</v>
       </c>
@@ -5482,11 +5512,11 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>214</v>
       </c>
@@ -5502,14 +5532,17 @@
       <c r="E16" t="s">
         <v>199</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G16" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H16" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5525,14 +5558,14 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>257</v>
       </c>
@@ -5548,33 +5581,33 @@
       <c r="E18" t="s">
         <v>411</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>245</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>277</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>288</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>289</v>
       </c>
-      <c r="Q18" t="str">
-        <f>J18&amp;" "&amp;K18&amp;" "&amp;L18&amp;" "&amp;M18&amp;" "&amp;N18&amp;" "&amp;O18&amp;" "&amp;P18</f>
+      <c r="R18" t="str">
+        <f>K18&amp;" "&amp;L18&amp;" "&amp;M18&amp;" "&amp;N18&amp;" "&amp;O18&amp;" "&amp;P18&amp;" "&amp;Q18</f>
         <v xml:space="preserve">Aliivibrio fischeri     </v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5590,14 +5623,14 @@
       <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -5605,22 +5638,22 @@
         <v>439</v>
       </c>
       <c r="C20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" t="s">
         <v>451</v>
-      </c>
-      <c r="D20" t="s">
-        <v>452</v>
       </c>
       <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
@@ -5631,11 +5664,11 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>146</v>
       </c>
@@ -5646,11 +5679,11 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147</v>
       </c>
@@ -5661,11 +5694,11 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -5673,22 +5706,22 @@
         <v>439</v>
       </c>
       <c r="C24" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" t="s">
         <v>453</v>
-      </c>
-      <c r="D24" t="s">
-        <v>454</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>148</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>203</v>
       </c>
@@ -5701,11 +5734,11 @@
       <c r="E25" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>258</v>
       </c>
@@ -5718,42 +5751,42 @@
       <c r="E26" t="s">
         <v>412</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>238</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>277</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>291</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>292</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>269</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>293</v>
       </c>
-      <c r="Q26" t="str">
-        <f>J26&amp;" "&amp;K26&amp;" "&amp;L26&amp;" "&amp;M26&amp;" "&amp;N26&amp;" "&amp;O26&amp;" "&amp;P26</f>
+      <c r="R26" t="str">
+        <f t="shared" ref="R26:R33" si="0">K26&amp;" "&amp;L26&amp;" "&amp;M26&amp;" "&amp;N26&amp;" "&amp;O26&amp;" "&amp;P26&amp;" "&amp;Q26</f>
         <v xml:space="preserve">Aquifex aeolicus strain VF5   </v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>294</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>259</v>
       </c>
@@ -5766,42 +5799,42 @@
       <c r="E27" t="s">
         <v>412</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>239</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>277</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>291</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>292</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>269</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>293</v>
       </c>
-      <c r="Q27" t="str">
-        <f>J27&amp;" "&amp;K27&amp;" "&amp;L27&amp;" "&amp;M27&amp;" "&amp;N27&amp;" "&amp;O27&amp;" "&amp;P27</f>
+      <c r="R27" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Aquifex aeolicus strain VF5   </v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>296</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>278</v>
       </c>
@@ -5809,7 +5842,7 @@
         <v>439</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>632</v>
       </c>
       <c r="D28" t="s">
         <v>372</v>
@@ -5817,36 +5850,36 @@
       <c r="E28" t="s">
         <v>428</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>259</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>225</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>371</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>372</v>
       </c>
-      <c r="Q28" t="str">
-        <f>J28&amp;" "&amp;K28&amp;" "&amp;L28&amp;" "&amp;M28&amp;" "&amp;N28&amp;" "&amp;O28&amp;" "&amp;P28</f>
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus alcalophilus     </v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>373</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>260</v>
       </c>
@@ -5863,44 +5896,47 @@
         <v>413</v>
       </c>
       <c r="F29" t="s">
+        <v>633</v>
+      </c>
+      <c r="G29" t="s">
         <v>258</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>230</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>277</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>267</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>297</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>269</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>298</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>299</v>
       </c>
-      <c r="Q29" t="str">
-        <f>J29&amp;" "&amp;K29&amp;" "&amp;L29&amp;" "&amp;M29&amp;" "&amp;N29&amp;" "&amp;O29&amp;" "&amp;P29</f>
+      <c r="R29" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus clausii strain KSM K16  </v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>300</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>253</v>
       </c>
@@ -5917,44 +5953,47 @@
         <v>407</v>
       </c>
       <c r="F30" t="s">
+        <v>634</v>
+      </c>
+      <c r="G30" t="s">
         <v>257</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>224</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>267</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>268</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>269</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>270</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>271</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>125</v>
       </c>
-      <c r="Q30" t="str">
-        <f>J30&amp;" "&amp;K30&amp;" "&amp;L30&amp;" "&amp;M30&amp;" "&amp;N30&amp;" "&amp;O30&amp;" "&amp;P30</f>
+      <c r="R30" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus halodurans strain ATCC BAA 125 </v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>272</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>279</v>
       </c>
@@ -5970,39 +6009,42 @@
       <c r="E31" t="s">
         <v>429</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>257</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>228</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>371</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>267</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>274</v>
       </c>
-      <c r="Q31" t="str">
-        <f>J31&amp;" "&amp;K31&amp;" "&amp;L31&amp;" "&amp;M31&amp;" "&amp;N31&amp;" "&amp;O31&amp;" "&amp;P31</f>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus licheniformis     </v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>375</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>254</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="C32" t="s">
         <v>267</v>
       </c>
@@ -6012,42 +6054,42 @@
       <c r="E32" t="s">
         <v>408</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>256</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>234</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>267</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>274</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>269</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>270</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>14580</v>
       </c>
-      <c r="Q32" t="str">
-        <f>J32&amp;" "&amp;K32&amp;" "&amp;L32&amp;" "&amp;M32&amp;" "&amp;N32&amp;" "&amp;O32&amp;" "&amp;P32</f>
+      <c r="R32" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus licheniformis strain ATCC 14580  </v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>275</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>280</v>
       </c>
@@ -6063,42 +6105,42 @@
       <c r="E33" t="s">
         <v>430</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>257</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>229</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>371</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>267</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>377</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>269</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>378</v>
       </c>
-      <c r="Q33" t="str">
-        <f>J33&amp;" "&amp;K33&amp;" "&amp;L33&amp;" "&amp;M33&amp;" "&amp;N33&amp;" "&amp;O33&amp;" "&amp;P33</f>
+      <c r="R33" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus pseudofirmus strain OF4   </v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>379</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>191</v>
       </c>
@@ -6111,16 +6153,16 @@
       <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>261</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C35" t="s">
         <v>267</v>
@@ -6131,42 +6173,42 @@
       <c r="E35" t="s">
         <v>414</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>235</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>277</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>267</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>302</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>269</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>168</v>
       </c>
-      <c r="Q35" t="str">
-        <f>J35&amp;" "&amp;K35&amp;" "&amp;L35&amp;" "&amp;M35&amp;" "&amp;N35&amp;" "&amp;O35&amp;" "&amp;P35</f>
+      <c r="R35" t="str">
+        <f>K35&amp;" "&amp;L35&amp;" "&amp;M35&amp;" "&amp;N35&amp;" "&amp;O35&amp;" "&amp;P35&amp;" "&amp;Q35</f>
         <v xml:space="preserve">Bacillus subtilis strain 168   </v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>303</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>281</v>
       </c>
@@ -6182,42 +6224,42 @@
       <c r="E36" t="s">
         <v>431</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>227</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>371</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>267</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>302</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>280</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>381</v>
       </c>
-      <c r="Q36" t="str">
-        <f>J36&amp;" "&amp;K36&amp;" "&amp;L36&amp;" "&amp;M36&amp;" "&amp;N36&amp;" "&amp;O36&amp;" "&amp;P36</f>
+      <c r="R36" t="str">
+        <f>K36&amp;" "&amp;L36&amp;" "&amp;M36&amp;" "&amp;N36&amp;" "&amp;O36&amp;" "&amp;P36&amp;" "&amp;Q36</f>
         <v xml:space="preserve">Bacillus subtilis subsp natto   </v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>382</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>282</v>
       </c>
@@ -6233,88 +6275,88 @@
       <c r="E37" t="s">
         <v>432</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>226</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>371</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>267</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>302</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>280</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>381</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>269</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>382</v>
       </c>
-      <c r="Q37" t="str">
-        <f>J37&amp;" "&amp;K37&amp;" "&amp;L37&amp;" "&amp;M37&amp;" "&amp;N37&amp;" "&amp;O37&amp;" "&amp;P37</f>
+      <c r="R37" t="str">
+        <f>K37&amp;" "&amp;L37&amp;" "&amp;M37&amp;" "&amp;N37&amp;" "&amp;O37&amp;" "&amp;P37&amp;" "&amp;Q37</f>
         <v xml:space="preserve">Bacillus subtilis subsp natto strain BEST195 </v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>384</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>204</v>
       </c>
       <c r="C38" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" t="s">
         <v>455</v>
-      </c>
-      <c r="D38" t="s">
-        <v>456</v>
       </c>
       <c r="E38" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D39" t="s">
         <v>457</v>
-      </c>
-      <c r="D39" t="s">
-        <v>458</v>
       </c>
       <c r="E39" t="s">
         <v>77</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>140</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -6322,22 +6364,22 @@
         <v>439</v>
       </c>
       <c r="C40" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" t="s">
         <v>459</v>
-      </c>
-      <c r="D40" t="s">
-        <v>460</v>
       </c>
       <c r="E40" t="s">
         <v>86</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>140</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>246</v>
       </c>
@@ -6345,19 +6387,19 @@
         <v>439</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>97</v>
       </c>
@@ -6368,11 +6410,11 @@
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>148</v>
       </c>
@@ -6383,11 +6425,11 @@
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>98</v>
       </c>
@@ -6398,11 +6440,11 @@
       <c r="E44" t="s">
         <v>39</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>149</v>
       </c>
@@ -6413,28 +6455,28 @@
       <c r="E45" t="s">
         <v>39</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -6442,39 +6484,39 @@
         <v>439</v>
       </c>
       <c r="C47" t="s">
+        <v>462</v>
+      </c>
+      <c r="D47" t="s">
         <v>463</v>
-      </c>
-      <c r="D47" t="s">
-        <v>464</v>
       </c>
       <c r="E47" t="s">
         <v>121</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>135</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>196</v>
       </c>
       <c r="C48" t="s">
+        <v>464</v>
+      </c>
+      <c r="D48" t="s">
         <v>465</v>
-      </c>
-      <c r="D48" t="s">
-        <v>466</v>
       </c>
       <c r="E48" t="s">
         <v>186</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>210</v>
       </c>
@@ -6482,39 +6524,39 @@
         <v>439</v>
       </c>
       <c r="C49" t="s">
+        <v>466</v>
+      </c>
+      <c r="D49" t="s">
         <v>467</v>
-      </c>
-      <c r="D49" t="s">
-        <v>468</v>
       </c>
       <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>211</v>
       </c>
       <c r="C50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D50" t="s">
         <v>467</v>
-      </c>
-      <c r="D50" t="s">
-        <v>468</v>
       </c>
       <c r="E50" t="s">
         <v>198</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>209</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>12</v>
       </c>
@@ -6522,22 +6564,22 @@
         <v>439</v>
       </c>
       <c r="C51" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51" t="s">
         <v>469</v>
-      </c>
-      <c r="D51" t="s">
-        <v>470</v>
       </c>
       <c r="E51" t="s">
         <v>88</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>140</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>229</v>
       </c>
@@ -6545,36 +6587,36 @@
         <v>439</v>
       </c>
       <c r="C52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E52" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>245</v>
       </c>
       <c r="C53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>99</v>
       </c>
@@ -6585,11 +6627,11 @@
       <c r="E54" t="s">
         <v>37</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>150</v>
       </c>
@@ -6600,88 +6642,88 @@
       <c r="E55" t="s">
         <v>37</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
       <c r="C56" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" t="s">
         <v>472</v>
-      </c>
-      <c r="D56" t="s">
-        <v>473</v>
       </c>
       <c r="E56" t="s">
         <v>112</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>136</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E57" t="s">
         <v>113</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>136</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E58" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>136</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>100</v>
       </c>
@@ -6692,11 +6734,11 @@
       <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>151</v>
       </c>
@@ -6707,11 +6749,11 @@
       <c r="E61" t="s">
         <v>2</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>16</v>
       </c>
@@ -6719,22 +6761,22 @@
         <v>439</v>
       </c>
       <c r="C62" t="s">
+        <v>475</v>
+      </c>
+      <c r="D62" t="s">
         <v>476</v>
-      </c>
-      <c r="D62" t="s">
-        <v>477</v>
       </c>
       <c r="E62" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>17</v>
       </c>
@@ -6742,22 +6784,22 @@
         <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E63" t="s">
         <v>80</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>138</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>18</v>
       </c>
@@ -6765,24 +6807,27 @@
         <v>439</v>
       </c>
       <c r="C64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D64" t="s">
         <v>479</v>
-      </c>
-      <c r="D64" t="s">
-        <v>480</v>
       </c>
       <c r="E64" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>101</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -6791,11 +6836,11 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>152</v>
       </c>
@@ -6806,51 +6851,51 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>19</v>
       </c>
       <c r="C67" t="s">
+        <v>480</v>
+      </c>
+      <c r="D67" t="s">
         <v>481</v>
-      </c>
-      <c r="D67" t="s">
-        <v>482</v>
       </c>
       <c r="E67" t="s">
         <v>109</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>138</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>208</v>
       </c>
       <c r="C68" t="s">
+        <v>480</v>
+      </c>
+      <c r="D68" t="s">
         <v>481</v>
-      </c>
-      <c r="D68" t="s">
-        <v>482</v>
       </c>
       <c r="E68" t="s">
         <v>109</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>213</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20</v>
       </c>
@@ -6858,22 +6903,22 @@
         <v>439</v>
       </c>
       <c r="C69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D69" t="s">
         <v>483</v>
-      </c>
-      <c r="D69" t="s">
-        <v>484</v>
       </c>
       <c r="E69" t="s">
         <v>92</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>140</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>102</v>
       </c>
@@ -6884,11 +6929,11 @@
       <c r="E70" t="s">
         <v>27</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>153</v>
       </c>
@@ -6899,11 +6944,11 @@
       <c r="E71" t="s">
         <v>27</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>228</v>
       </c>
@@ -6911,73 +6956,73 @@
         <v>439</v>
       </c>
       <c r="C72" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" t="s">
         <v>485</v>
-      </c>
-      <c r="D72" t="s">
-        <v>486</v>
       </c>
       <c r="E72" t="s">
         <v>167</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>244</v>
       </c>
       <c r="C73" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" t="s">
         <v>485</v>
-      </c>
-      <c r="D73" t="s">
-        <v>486</v>
       </c>
       <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>227</v>
       </c>
       <c r="C74" t="s">
+        <v>484</v>
+      </c>
+      <c r="D74" t="s">
         <v>485</v>
-      </c>
-      <c r="D74" t="s">
-        <v>486</v>
       </c>
       <c r="E74" t="s">
         <v>164</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>240</v>
       </c>
       <c r="C75" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" t="s">
         <v>485</v>
-      </c>
-      <c r="D75" t="s">
-        <v>486</v>
       </c>
       <c r="E75" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>192</v>
       </c>
@@ -6985,19 +7030,19 @@
         <v>439</v>
       </c>
       <c r="C76" t="s">
+        <v>486</v>
+      </c>
+      <c r="D76" t="s">
         <v>487</v>
-      </c>
-      <c r="D76" t="s">
-        <v>488</v>
       </c>
       <c r="E76" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>219</v>
       </c>
@@ -7005,22 +7050,22 @@
         <v>439</v>
       </c>
       <c r="C77" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" t="s">
         <v>489</v>
-      </c>
-      <c r="D77" t="s">
-        <v>490</v>
       </c>
       <c r="E77" t="s">
         <v>201</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>210</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21</v>
       </c>
@@ -7028,22 +7073,22 @@
         <v>439</v>
       </c>
       <c r="C78" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" t="s">
         <v>491</v>
-      </c>
-      <c r="D78" t="s">
-        <v>492</v>
       </c>
       <c r="E78" t="s">
         <v>93</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>140</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>103</v>
       </c>
@@ -7054,11 +7099,11 @@
       <c r="E79" t="s">
         <v>29</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>154</v>
       </c>
@@ -7069,11 +7114,11 @@
       <c r="E80" t="s">
         <v>29</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>22</v>
       </c>
@@ -7081,22 +7126,22 @@
         <v>439</v>
       </c>
       <c r="C81" t="s">
+        <v>492</v>
+      </c>
+      <c r="D81" t="s">
         <v>493</v>
-      </c>
-      <c r="D81" t="s">
-        <v>494</v>
       </c>
       <c r="E81" t="s">
         <v>87</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>140</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>104</v>
       </c>
@@ -7107,11 +7152,11 @@
       <c r="E82" t="s">
         <v>36</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>155</v>
       </c>
@@ -7122,11 +7167,11 @@
       <c r="E83" t="s">
         <v>36</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>23</v>
       </c>
@@ -7134,22 +7179,22 @@
         <v>439</v>
       </c>
       <c r="C84" t="s">
+        <v>494</v>
+      </c>
+      <c r="D84" t="s">
         <v>495</v>
-      </c>
-      <c r="D84" t="s">
-        <v>496</v>
       </c>
       <c r="E84" t="s">
         <v>91</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>140</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>105</v>
       </c>
@@ -7160,11 +7205,11 @@
       <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>156</v>
       </c>
@@ -7175,31 +7220,31 @@
       <c r="E86" t="s">
         <v>30</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>24</v>
       </c>
       <c r="C87" t="s">
+        <v>496</v>
+      </c>
+      <c r="D87" t="s">
         <v>497</v>
-      </c>
-      <c r="D87" t="s">
-        <v>498</v>
       </c>
       <c r="E87" t="s">
         <v>118</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>135</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>25</v>
       </c>
@@ -7207,22 +7252,22 @@
         <v>439</v>
       </c>
       <c r="C88" t="s">
+        <v>498</v>
+      </c>
+      <c r="D88" t="s">
         <v>499</v>
-      </c>
-      <c r="D88" t="s">
-        <v>500</v>
       </c>
       <c r="E88" t="s">
         <v>100</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>139</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>26</v>
       </c>
@@ -7230,22 +7275,22 @@
         <v>439</v>
       </c>
       <c r="C89" t="s">
+        <v>500</v>
+      </c>
+      <c r="D89" t="s">
         <v>501</v>
-      </c>
-      <c r="D89" t="s">
-        <v>502</v>
       </c>
       <c r="E89" t="s">
         <v>99</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>139</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>27</v>
       </c>
@@ -7253,22 +7298,22 @@
         <v>439</v>
       </c>
       <c r="C90" t="s">
+        <v>502</v>
+      </c>
+      <c r="D90" t="s">
         <v>503</v>
-      </c>
-      <c r="D90" t="s">
-        <v>504</v>
       </c>
       <c r="E90" t="s">
         <v>97</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>139</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>28</v>
       </c>
@@ -7276,39 +7321,39 @@
         <v>439</v>
       </c>
       <c r="C91" t="s">
+        <v>504</v>
+      </c>
+      <c r="D91" t="s">
         <v>505</v>
-      </c>
-      <c r="D91" t="s">
-        <v>506</v>
       </c>
       <c r="E91" t="s">
         <v>96</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>139</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>205</v>
       </c>
       <c r="C92" t="s">
+        <v>504</v>
+      </c>
+      <c r="D92" t="s">
         <v>505</v>
-      </c>
-      <c r="D92" t="s">
-        <v>506</v>
       </c>
       <c r="E92" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>29</v>
       </c>
@@ -7319,19 +7364,19 @@
         <v>305</v>
       </c>
       <c r="D93" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E93" t="s">
         <v>102</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>139</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>30</v>
       </c>
@@ -7347,14 +7392,14 @@
       <c r="E94" t="s">
         <v>103</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>139</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>262</v>
       </c>
@@ -7367,45 +7412,45 @@
       <c r="E95" t="s">
         <v>415</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>256</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>243</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>277</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>305</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>306</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>269</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>270</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>700980</v>
       </c>
-      <c r="Q95" t="str">
-        <f>J95&amp;" "&amp;K95&amp;" "&amp;L95&amp;" "&amp;M95&amp;" "&amp;N95&amp;" "&amp;O95&amp;" "&amp;P95</f>
+      <c r="R95" t="str">
+        <f>K95&amp;" "&amp;L95&amp;" "&amp;M95&amp;" "&amp;N95&amp;" "&amp;O95&amp;" "&amp;P95&amp;" "&amp;Q95</f>
         <v xml:space="preserve">Desulfovibrio magneticus strain ATCC 700980  </v>
       </c>
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>307</v>
       </c>
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>206</v>
       </c>
@@ -7416,16 +7461,16 @@
         <v>305</v>
       </c>
       <c r="D96" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E96" t="s">
         <v>193</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>106</v>
       </c>
@@ -7439,11 +7484,11 @@
       <c r="E97" t="s">
         <v>43</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>157</v>
       </c>
@@ -7454,11 +7499,11 @@
       <c r="E98" t="s">
         <v>43</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>107</v>
       </c>
@@ -7472,11 +7517,11 @@
       <c r="E99" t="s">
         <v>44</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>158</v>
       </c>
@@ -7487,11 +7532,11 @@
       <c r="E100" t="s">
         <v>44</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>231</v>
       </c>
@@ -7499,39 +7544,39 @@
         <v>439</v>
       </c>
       <c r="C101" t="s">
+        <v>508</v>
+      </c>
+      <c r="D101" t="s">
         <v>509</v>
-      </c>
-      <c r="D101" t="s">
-        <v>510</v>
       </c>
       <c r="E101" t="s">
         <v>170</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>208</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>247</v>
       </c>
       <c r="C102" t="s">
+        <v>508</v>
+      </c>
+      <c r="D102" t="s">
         <v>509</v>
-      </c>
-      <c r="D102" t="s">
-        <v>510</v>
       </c>
       <c r="E102" t="s">
         <v>170</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>31</v>
       </c>
@@ -7544,14 +7589,14 @@
       <c r="E103" t="s">
         <v>84</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>141</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>232</v>
       </c>
@@ -7564,14 +7609,14 @@
       <c r="E104" t="s">
         <v>84</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>208</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="H104" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>252</v>
       </c>
@@ -7587,17 +7632,17 @@
       <c r="E105" t="s">
         <v>175</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>405</v>
       </c>
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>242</v>
       </c>
@@ -7610,11 +7655,11 @@
       <c r="E106" t="s">
         <v>166</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="H106" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>251</v>
       </c>
@@ -7627,11 +7672,11 @@
       <c r="E107" t="s">
         <v>174</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="H107" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>263</v>
       </c>
@@ -7644,42 +7689,42 @@
       <c r="E108" t="s">
         <v>416</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>256</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="H108" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>221</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>277</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>309</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>310</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>269</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>311</v>
       </c>
-      <c r="Q108" t="str">
-        <f>J108&amp;" "&amp;K108&amp;" "&amp;L108&amp;" "&amp;M108&amp;" "&amp;N108&amp;" "&amp;O108&amp;" "&amp;P108</f>
+      <c r="R108" t="str">
+        <f>K108&amp;" "&amp;L108&amp;" "&amp;M108&amp;" "&amp;N108&amp;" "&amp;O108&amp;" "&amp;P108&amp;" "&amp;Q108</f>
         <v xml:space="preserve">Escherichia coli strain K12   </v>
       </c>
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>303</v>
       </c>
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7690,11 +7735,11 @@
       <c r="E109" t="s">
         <v>1</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -7705,11 +7750,11 @@
       <c r="E110" t="s">
         <v>1</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>264</v>
       </c>
@@ -7725,42 +7770,42 @@
       <c r="E111" t="s">
         <v>417</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>256</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="H111" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>237</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>277</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>313</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>314</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>269</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>315</v>
       </c>
-      <c r="Q111" t="str">
-        <f>J111&amp;" "&amp;K111&amp;" "&amp;L111&amp;" "&amp;M111&amp;" "&amp;N111&amp;" "&amp;O111&amp;" "&amp;P111</f>
+      <c r="R111" t="str">
+        <f>K111&amp;" "&amp;L111&amp;" "&amp;M111&amp;" "&amp;N111&amp;" "&amp;O111&amp;" "&amp;P111&amp;" "&amp;Q111</f>
         <v xml:space="preserve">Geobacillus kaustophilus strain HTA426   </v>
       </c>
-      <c r="S111" t="s">
+      <c r="T111" t="s">
         <v>316</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>32</v>
       </c>
@@ -7768,22 +7813,22 @@
         <v>439</v>
       </c>
       <c r="C112" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" t="s">
         <v>511</v>
-      </c>
-      <c r="D112" t="s">
-        <v>512</v>
       </c>
       <c r="E112" t="s">
         <v>98</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>139</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>33</v>
       </c>
@@ -7791,22 +7836,22 @@
         <v>439</v>
       </c>
       <c r="C113" t="s">
+        <v>512</v>
+      </c>
+      <c r="D113" t="s">
         <v>513</v>
-      </c>
-      <c r="D113" t="s">
-        <v>514</v>
       </c>
       <c r="E113" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>34</v>
       </c>
@@ -7814,22 +7859,22 @@
         <v>439</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D114" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E114" t="s">
         <v>49</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>35</v>
       </c>
@@ -7837,22 +7882,22 @@
         <v>439</v>
       </c>
       <c r="C115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E115" t="s">
         <v>51</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>109</v>
       </c>
@@ -7866,11 +7911,11 @@
       <c r="E116" t="s">
         <v>16</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>160</v>
       </c>
@@ -7881,11 +7926,11 @@
       <c r="E117" t="s">
         <v>16</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>110</v>
       </c>
@@ -7896,11 +7941,11 @@
       <c r="E118" t="s">
         <v>14</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>161</v>
       </c>
@@ -7911,11 +7956,11 @@
       <c r="E119" t="s">
         <v>14</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>207</v>
       </c>
@@ -7923,22 +7968,22 @@
         <v>439</v>
       </c>
       <c r="C120" t="s">
+        <v>515</v>
+      </c>
+      <c r="D120" t="s">
         <v>516</v>
-      </c>
-      <c r="D120" t="s">
-        <v>517</v>
       </c>
       <c r="E120" t="s">
         <v>194</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>213</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="H120" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>36</v>
       </c>
@@ -7946,22 +7991,22 @@
         <v>439</v>
       </c>
       <c r="C121" t="s">
+        <v>517</v>
+      </c>
+      <c r="D121" t="s">
         <v>518</v>
-      </c>
-      <c r="D121" t="s">
-        <v>519</v>
       </c>
       <c r="E121" t="s">
         <v>124</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>135</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>37</v>
       </c>
@@ -7972,19 +8017,19 @@
         <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E122" t="s">
         <v>115</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>136</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>201</v>
       </c>
@@ -8000,11 +8045,11 @@
       <c r="E123" t="s">
         <v>190</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="H123" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>265</v>
       </c>
@@ -8017,45 +8062,45 @@
       <c r="E124" t="s">
         <v>418</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>256</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>218</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>277</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>318</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>319</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>269</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>270</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>700392</v>
       </c>
-      <c r="Q124" t="str">
-        <f>J124&amp;" "&amp;K124&amp;" "&amp;L124&amp;" "&amp;M124&amp;" "&amp;N124&amp;" "&amp;O124&amp;" "&amp;P124</f>
+      <c r="R124" t="str">
+        <f>K124&amp;" "&amp;L124&amp;" "&amp;M124&amp;" "&amp;N124&amp;" "&amp;O124&amp;" "&amp;P124&amp;" "&amp;Q124</f>
         <v xml:space="preserve">Helicobacter pylori strain ATCC 700392  </v>
       </c>
-      <c r="S124" t="s">
+      <c r="T124" t="s">
         <v>303</v>
       </c>
-      <c r="T124" t="s">
+      <c r="U124" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38</v>
       </c>
@@ -8063,22 +8108,22 @@
         <v>439</v>
       </c>
       <c r="C125" t="s">
+        <v>520</v>
+      </c>
+      <c r="D125" t="s">
         <v>521</v>
-      </c>
-      <c r="D125" t="s">
-        <v>522</v>
       </c>
       <c r="E125" t="s">
         <v>94</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>140</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>111</v>
       </c>
@@ -8089,11 +8134,11 @@
       <c r="E126" t="s">
         <v>28</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>162</v>
       </c>
@@ -8104,11 +8149,11 @@
       <c r="E127" t="s">
         <v>28</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>39</v>
       </c>
@@ -8116,22 +8161,22 @@
         <v>439</v>
       </c>
       <c r="C128" t="s">
+        <v>522</v>
+      </c>
+      <c r="D128" t="s">
         <v>523</v>
-      </c>
-      <c r="D128" t="s">
-        <v>524</v>
       </c>
       <c r="E128" t="s">
         <v>110</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>138</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>220</v>
       </c>
@@ -8139,42 +8184,42 @@
         <v>439</v>
       </c>
       <c r="C129" t="s">
+        <v>524</v>
+      </c>
+      <c r="D129" t="s">
         <v>525</v>
-      </c>
-      <c r="D129" t="s">
-        <v>526</v>
       </c>
       <c r="E129" t="s">
         <v>202</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>210</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="H129" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>40</v>
       </c>
       <c r="C130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D130" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E130" t="s">
         <v>59</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>41</v>
       </c>
@@ -8182,22 +8227,22 @@
         <v>439</v>
       </c>
       <c r="C131" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" t="s">
         <v>528</v>
-      </c>
-      <c r="D131" t="s">
-        <v>529</v>
       </c>
       <c r="E131" t="s">
         <v>101</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>139</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>217</v>
       </c>
@@ -8205,39 +8250,39 @@
         <v>439</v>
       </c>
       <c r="C132" t="s">
+        <v>529</v>
+      </c>
+      <c r="D132" t="s">
         <v>530</v>
-      </c>
-      <c r="D132" t="s">
-        <v>531</v>
       </c>
       <c r="E132" t="s">
         <v>161</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>210</v>
       </c>
-      <c r="G132" s="6" t="s">
+      <c r="H132" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>236</v>
       </c>
       <c r="C133" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" t="s">
         <v>530</v>
-      </c>
-      <c r="D133" t="s">
-        <v>531</v>
       </c>
       <c r="E133" t="s">
         <v>161</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="H133" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>42</v>
       </c>
@@ -8253,14 +8298,14 @@
       <c r="E134" t="s">
         <v>122</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>135</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>266</v>
       </c>
@@ -8273,51 +8318,51 @@
       <c r="E135" t="s">
         <v>419</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>258</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="H135" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>219</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>277</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>321</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>322</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>323</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>324</v>
       </c>
-      <c r="N135" t="s">
+      <c r="O135" t="s">
         <v>269</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>324</v>
       </c>
-      <c r="P135">
+      <c r="Q135">
         <v>1</v>
       </c>
-      <c r="Q135" t="str">
-        <f>J135&amp;" "&amp;K135&amp;" "&amp;L135&amp;" "&amp;M135&amp;" "&amp;N135&amp;" "&amp;O135&amp;" "&amp;P135</f>
+      <c r="R135" t="str">
+        <f>K135&amp;" "&amp;L135&amp;" "&amp;M135&amp;" "&amp;N135&amp;" "&amp;O135&amp;" "&amp;P135&amp;" "&amp;Q135</f>
         <v>Leptospira biflexa serovar Patoc strain Patoc 1</v>
       </c>
-      <c r="S135" t="s">
+      <c r="T135" t="s">
         <v>325</v>
       </c>
-      <c r="T135" t="s">
+      <c r="U135" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>195</v>
       </c>
@@ -8328,33 +8373,33 @@
         <v>321</v>
       </c>
       <c r="D136" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E136" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="H136" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>194</v>
       </c>
       <c r="C137" t="s">
+        <v>532</v>
+      </c>
+      <c r="D137" t="s">
         <v>533</v>
-      </c>
-      <c r="D137" t="s">
-        <v>534</v>
       </c>
       <c r="E137" t="s">
         <v>184</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="H137" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>43</v>
       </c>
@@ -8362,22 +8407,22 @@
         <v>439</v>
       </c>
       <c r="C138" t="s">
+        <v>534</v>
+      </c>
+      <c r="D138" t="s">
         <v>535</v>
-      </c>
-      <c r="D138" t="s">
-        <v>536</v>
       </c>
       <c r="E138" t="s">
         <v>105</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>137</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>44</v>
       </c>
@@ -8385,22 +8430,22 @@
         <v>439</v>
       </c>
       <c r="C139" t="s">
+        <v>536</v>
+      </c>
+      <c r="D139" t="s">
         <v>537</v>
-      </c>
-      <c r="D139" t="s">
-        <v>538</v>
       </c>
       <c r="E139" t="s">
         <v>70</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>148</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>45</v>
       </c>
@@ -8408,22 +8453,22 @@
         <v>439</v>
       </c>
       <c r="C140" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D140" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E140" t="s">
         <v>69</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>148</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>112</v>
       </c>
@@ -8437,11 +8482,11 @@
       <c r="E141" t="s">
         <v>24</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>163</v>
       </c>
@@ -8452,11 +8497,11 @@
       <c r="E142" t="s">
         <v>24</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>113</v>
       </c>
@@ -8470,11 +8515,11 @@
       <c r="E143" t="s">
         <v>23</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>164</v>
       </c>
@@ -8485,31 +8530,31 @@
       <c r="E144" t="s">
         <v>128</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>46</v>
       </c>
       <c r="C145" t="s">
+        <v>539</v>
+      </c>
+      <c r="D145" t="s">
         <v>540</v>
-      </c>
-      <c r="D145" t="s">
-        <v>541</v>
       </c>
       <c r="E145" t="s">
         <v>71</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>148</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>114</v>
       </c>
@@ -8520,11 +8565,11 @@
       <c r="E146" t="s">
         <v>22</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>165</v>
       </c>
@@ -8538,11 +8583,11 @@
       <c r="E147" t="s">
         <v>129</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>212</v>
       </c>
@@ -8550,22 +8595,22 @@
         <v>439</v>
       </c>
       <c r="C148" t="s">
+        <v>541</v>
+      </c>
+      <c r="D148" t="s">
         <v>542</v>
-      </c>
-      <c r="D148" t="s">
-        <v>543</v>
       </c>
       <c r="E148" t="s">
         <v>196</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>212</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="H148" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>47</v>
       </c>
@@ -8573,22 +8618,22 @@
         <v>439</v>
       </c>
       <c r="C149" t="s">
+        <v>543</v>
+      </c>
+      <c r="D149" t="s">
         <v>544</v>
-      </c>
-      <c r="D149" t="s">
-        <v>545</v>
       </c>
       <c r="E149" t="s">
         <v>83</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>140</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>166</v>
       </c>
@@ -8599,11 +8644,11 @@
       <c r="E150" t="s">
         <v>130</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>115</v>
       </c>
@@ -8614,11 +8659,11 @@
       <c r="E151" t="s">
         <v>35</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>48</v>
       </c>
@@ -8626,22 +8671,22 @@
         <v>439</v>
       </c>
       <c r="C152" t="s">
+        <v>545</v>
+      </c>
+      <c r="D152" t="s">
         <v>546</v>
-      </c>
-      <c r="D152" t="s">
-        <v>547</v>
       </c>
       <c r="E152" t="s">
         <v>73</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>148</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>116</v>
       </c>
@@ -8652,11 +8697,11 @@
       <c r="E153" t="s">
         <v>26</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>167</v>
       </c>
@@ -8667,11 +8712,11 @@
       <c r="E154" t="s">
         <v>26</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>49</v>
       </c>
@@ -8679,22 +8724,22 @@
         <v>439</v>
       </c>
       <c r="C155" t="s">
+        <v>547</v>
+      </c>
+      <c r="D155" t="s">
         <v>548</v>
-      </c>
-      <c r="D155" t="s">
-        <v>549</v>
       </c>
       <c r="E155" t="s">
         <v>82</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>140</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>117</v>
       </c>
@@ -8705,11 +8750,11 @@
       <c r="E156" t="s">
         <v>34</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>168</v>
       </c>
@@ -8720,11 +8765,11 @@
       <c r="E157" t="s">
         <v>34</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>118</v>
       </c>
@@ -8738,11 +8783,11 @@
       <c r="E158" t="s">
         <v>40</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>169</v>
       </c>
@@ -8753,11 +8798,11 @@
       <c r="E159" t="s">
         <v>40</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>50</v>
       </c>
@@ -8765,22 +8810,22 @@
         <v>439</v>
       </c>
       <c r="C160" t="s">
+        <v>549</v>
+      </c>
+      <c r="D160" t="s">
         <v>550</v>
-      </c>
-      <c r="D160" t="s">
-        <v>551</v>
       </c>
       <c r="E160" t="s">
         <v>63</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>51</v>
       </c>
@@ -8788,22 +8833,22 @@
         <v>439</v>
       </c>
       <c r="C161" t="s">
+        <v>551</v>
+      </c>
+      <c r="D161" t="s">
         <v>552</v>
-      </c>
-      <c r="D161" t="s">
-        <v>553</v>
       </c>
       <c r="E161" t="s">
         <v>117</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>136</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>52</v>
       </c>
@@ -8811,22 +8856,22 @@
         <v>439</v>
       </c>
       <c r="C162" t="s">
+        <v>553</v>
+      </c>
+      <c r="D162" t="s">
         <v>554</v>
-      </c>
-      <c r="D162" t="s">
-        <v>555</v>
       </c>
       <c r="E162" t="s">
         <v>74</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>148</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>119</v>
       </c>
@@ -8837,11 +8882,11 @@
       <c r="E163" t="s">
         <v>25</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>170</v>
       </c>
@@ -8852,11 +8897,11 @@
       <c r="E164" t="s">
         <v>25</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>53</v>
       </c>
@@ -8864,22 +8909,22 @@
         <v>439</v>
       </c>
       <c r="C165" t="s">
+        <v>555</v>
+      </c>
+      <c r="D165" t="s">
         <v>556</v>
-      </c>
-      <c r="D165" t="s">
-        <v>557</v>
       </c>
       <c r="E165" t="s">
         <v>89</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>140</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>120</v>
       </c>
@@ -8890,11 +8935,11 @@
       <c r="E166" t="s">
         <v>32</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>171</v>
       </c>
@@ -8905,11 +8950,11 @@
       <c r="E167" t="s">
         <v>32</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>54</v>
       </c>
@@ -8917,42 +8962,42 @@
         <v>439</v>
       </c>
       <c r="C168" t="s">
+        <v>557</v>
+      </c>
+      <c r="D168" t="s">
         <v>558</v>
-      </c>
-      <c r="D168" t="s">
-        <v>559</v>
       </c>
       <c r="E168" t="s">
         <v>155</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>55</v>
       </c>
       <c r="C169" t="s">
+        <v>557</v>
+      </c>
+      <c r="D169" t="s">
         <v>558</v>
-      </c>
-      <c r="D169" t="s">
-        <v>559</v>
       </c>
       <c r="E169" t="s">
         <v>150</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>121</v>
       </c>
@@ -8963,11 +9008,11 @@
       <c r="E170" t="s">
         <v>6</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>122</v>
       </c>
@@ -8978,11 +9023,11 @@
       <c r="E171" t="s">
         <v>6</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -8993,11 +9038,11 @@
       <c r="E172" t="s">
         <v>6</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>267</v>
       </c>
@@ -9013,45 +9058,45 @@
       <c r="E173" t="s">
         <v>420</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>256</v>
       </c>
-      <c r="G173" s="6" t="s">
+      <c r="H173" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>232</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>277</v>
       </c>
-      <c r="J173" t="s">
+      <c r="K173" t="s">
         <v>327</v>
       </c>
-      <c r="K173" t="s">
+      <c r="L173" t="s">
         <v>328</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>269</v>
       </c>
-      <c r="M173" t="s">
+      <c r="N173" t="s">
         <v>329</v>
       </c>
-      <c r="N173">
+      <c r="O173">
         <v>14371</v>
       </c>
-      <c r="Q173" t="str">
-        <f>J173&amp;" "&amp;K173&amp;" "&amp;L173&amp;" "&amp;M173&amp;" "&amp;N173&amp;" "&amp;O173&amp;" "&amp;P173</f>
+      <c r="R173" t="str">
+        <f>K173&amp;" "&amp;L173&amp;" "&amp;M173&amp;" "&amp;N173&amp;" "&amp;O173&amp;" "&amp;P173&amp;" "&amp;Q173</f>
         <v xml:space="preserve">Oceanobacillus iheyensis strain DSM 14371  </v>
       </c>
-      <c r="S173" t="s">
+      <c r="T173" t="s">
         <v>330</v>
       </c>
-      <c r="T173" t="s">
+      <c r="U173" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>56</v>
       </c>
@@ -9059,42 +9104,42 @@
         <v>439</v>
       </c>
       <c r="C174" t="s">
+        <v>559</v>
+      </c>
+      <c r="D174" t="s">
         <v>560</v>
-      </c>
-      <c r="D174" t="s">
-        <v>561</v>
       </c>
       <c r="E174" t="s">
         <v>79</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>138</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>57</v>
       </c>
       <c r="C175" t="s">
+        <v>561</v>
+      </c>
+      <c r="D175" t="s">
         <v>562</v>
-      </c>
-      <c r="D175" t="s">
-        <v>563</v>
       </c>
       <c r="E175" t="s">
         <v>119</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>135</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>268</v>
       </c>
@@ -9110,39 +9155,39 @@
       <c r="E176" t="s">
         <v>421</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>260</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="H176" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>231</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>277</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>332</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>333</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>334</v>
       </c>
-      <c r="Q176" t="str">
-        <f>J176&amp;" "&amp;K176&amp;" "&amp;L176&amp;" "&amp;M176&amp;" "&amp;N176&amp;" "&amp;O176&amp;" "&amp;P176</f>
+      <c r="R176" t="str">
+        <f>K176&amp;" "&amp;L176&amp;" "&amp;M176&amp;" "&amp;N176&amp;" "&amp;O176&amp;" "&amp;P176&amp;" "&amp;Q176</f>
         <v xml:space="preserve">Paenibacillus sp TCA20    </v>
       </c>
-      <c r="S176" t="s">
+      <c r="T176" t="s">
         <v>335</v>
       </c>
-      <c r="T176" t="s">
+      <c r="U176" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>58</v>
       </c>
@@ -9150,22 +9195,22 @@
         <v>439</v>
       </c>
       <c r="C177" t="s">
+        <v>563</v>
+      </c>
+      <c r="D177" t="s">
         <v>564</v>
-      </c>
-      <c r="D177" t="s">
-        <v>565</v>
       </c>
       <c r="E177" t="s">
         <v>108</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>138</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>59</v>
       </c>
@@ -9173,22 +9218,22 @@
         <v>439</v>
       </c>
       <c r="C178" t="s">
+        <v>565</v>
+      </c>
+      <c r="D178" t="s">
         <v>566</v>
-      </c>
-      <c r="D178" t="s">
-        <v>567</v>
       </c>
       <c r="E178" t="s">
         <v>95</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>139</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>60</v>
       </c>
@@ -9196,42 +9241,42 @@
         <v>439</v>
       </c>
       <c r="C179" t="s">
+        <v>567</v>
+      </c>
+      <c r="D179" t="s">
         <v>568</v>
-      </c>
-      <c r="D179" t="s">
-        <v>569</v>
       </c>
       <c r="E179" t="s">
         <v>154</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>61</v>
       </c>
       <c r="C180" t="s">
+        <v>567</v>
+      </c>
+      <c r="D180" t="s">
         <v>568</v>
-      </c>
-      <c r="D180" t="s">
-        <v>569</v>
       </c>
       <c r="E180" t="s">
         <v>152</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>222</v>
       </c>
@@ -9239,59 +9284,59 @@
         <v>439</v>
       </c>
       <c r="C181" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D181" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E181" t="s">
         <v>204</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>210</v>
       </c>
-      <c r="G181" s="6" t="s">
+      <c r="H181" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>224</v>
       </c>
       <c r="C182" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D182" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E182" t="s">
         <v>162</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>209</v>
       </c>
-      <c r="G182" s="6" t="s">
+      <c r="H182" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>238</v>
       </c>
       <c r="C183" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D183" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E183" t="s">
         <v>162</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="H183" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>123</v>
       </c>
@@ -9302,11 +9347,11 @@
       <c r="E184" t="s">
         <v>9</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>124</v>
       </c>
@@ -9317,11 +9362,11 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>173</v>
       </c>
@@ -9332,11 +9377,11 @@
       <c r="E186" t="s">
         <v>9</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>235</v>
       </c>
@@ -9344,39 +9389,39 @@
         <v>439</v>
       </c>
       <c r="C187" t="s">
+        <v>570</v>
+      </c>
+      <c r="D187" t="s">
         <v>571</v>
-      </c>
-      <c r="D187" t="s">
-        <v>572</v>
       </c>
       <c r="E187" t="s">
         <v>172</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>208</v>
       </c>
-      <c r="G187" s="6" t="s">
+      <c r="H187" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>249</v>
       </c>
       <c r="C188" t="s">
+        <v>570</v>
+      </c>
+      <c r="D188" t="s">
         <v>571</v>
-      </c>
-      <c r="D188" t="s">
-        <v>572</v>
       </c>
       <c r="E188" t="s">
         <v>172</v>
       </c>
-      <c r="G188" s="6" t="s">
+      <c r="H188" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>62</v>
       </c>
@@ -9384,22 +9429,22 @@
         <v>439</v>
       </c>
       <c r="C189" t="s">
+        <v>572</v>
+      </c>
+      <c r="D189" t="s">
         <v>573</v>
-      </c>
-      <c r="D189" t="s">
-        <v>574</v>
       </c>
       <c r="E189" t="s">
         <v>120</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>135</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>63</v>
       </c>
@@ -9407,42 +9452,42 @@
         <v>439</v>
       </c>
       <c r="C190" t="s">
+        <v>574</v>
+      </c>
+      <c r="D190" t="s">
         <v>575</v>
-      </c>
-      <c r="D190" t="s">
-        <v>576</v>
       </c>
       <c r="E190" t="s">
         <v>153</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>64</v>
       </c>
       <c r="C191" t="s">
+        <v>574</v>
+      </c>
+      <c r="D191" t="s">
         <v>575</v>
-      </c>
-      <c r="D191" t="s">
-        <v>576</v>
       </c>
       <c r="E191" t="s">
         <v>149</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>125</v>
       </c>
@@ -9453,11 +9498,11 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>126</v>
       </c>
@@ -9468,11 +9513,11 @@
       <c r="E193" t="s">
         <v>12</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>174</v>
       </c>
@@ -9483,11 +9528,11 @@
       <c r="E194" t="s">
         <v>12</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>65</v>
       </c>
@@ -9495,22 +9540,22 @@
         <v>439</v>
       </c>
       <c r="C195" t="s">
+        <v>576</v>
+      </c>
+      <c r="D195" t="s">
         <v>577</v>
-      </c>
-      <c r="D195" t="s">
-        <v>578</v>
       </c>
       <c r="E195" t="s">
         <v>57</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>66</v>
       </c>
@@ -9518,22 +9563,22 @@
         <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D196" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E196" t="s">
         <v>58</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>67</v>
       </c>
@@ -9541,22 +9586,22 @@
         <v>439</v>
       </c>
       <c r="C197" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D197" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E197" t="s">
         <v>56</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>127</v>
       </c>
@@ -9570,11 +9615,11 @@
       <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>175</v>
       </c>
@@ -9585,11 +9630,11 @@
       <c r="E199" t="s">
         <v>13</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>128</v>
       </c>
@@ -9600,11 +9645,11 @@
       <c r="E200" t="s">
         <v>19</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>176</v>
       </c>
@@ -9615,11 +9660,11 @@
       <c r="E201" t="s">
         <v>134</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>129</v>
       </c>
@@ -9630,11 +9675,11 @@
       <c r="E202" t="s">
         <v>18</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>177</v>
       </c>
@@ -9645,11 +9690,11 @@
       <c r="E203" t="s">
         <v>18</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>68</v>
       </c>
@@ -9662,14 +9707,14 @@
       <c r="E204" t="s">
         <v>67</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>148</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>223</v>
       </c>
@@ -9682,14 +9727,14 @@
       <c r="E205" t="s">
         <v>67</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>210</v>
       </c>
-      <c r="G205" s="6" t="s">
+      <c r="H205" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>269</v>
       </c>
@@ -9705,45 +9750,45 @@
       <c r="E206" t="s">
         <v>422</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>256</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="H206" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I206" t="s">
         <v>223</v>
       </c>
-      <c r="I206" t="s">
+      <c r="J206" t="s">
         <v>277</v>
       </c>
-      <c r="J206" t="s">
+      <c r="K206" t="s">
         <v>337</v>
       </c>
-      <c r="K206" t="s">
+      <c r="L206" t="s">
         <v>338</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>269</v>
       </c>
-      <c r="M206" t="s">
+      <c r="N206" t="s">
         <v>270</v>
       </c>
-      <c r="N206">
+      <c r="O206">
         <v>15692</v>
       </c>
-      <c r="Q206" t="str">
-        <f>J206&amp;" "&amp;K206&amp;" "&amp;L206&amp;" "&amp;M206&amp;" "&amp;N206&amp;" "&amp;O206&amp;" "&amp;P206</f>
+      <c r="R206" t="str">
+        <f>K206&amp;" "&amp;L206&amp;" "&amp;M206&amp;" "&amp;N206&amp;" "&amp;O206&amp;" "&amp;P206&amp;" "&amp;Q206</f>
         <v xml:space="preserve">Pseudomonas aeruginosa strain ATCC 15692  </v>
       </c>
-      <c r="S206" t="s">
+      <c r="T206" t="s">
         <v>339</v>
       </c>
-      <c r="T206" t="s">
+      <c r="U206" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>277</v>
       </c>
@@ -9756,45 +9801,45 @@
       <c r="E207" t="s">
         <v>422</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>256</v>
       </c>
-      <c r="G207" s="6" t="s">
+      <c r="H207" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H207" t="s">
+      <c r="I207" t="s">
         <v>244</v>
       </c>
-      <c r="I207" t="s">
+      <c r="J207" t="s">
         <v>369</v>
       </c>
-      <c r="J207" t="s">
+      <c r="K207" t="s">
         <v>337</v>
       </c>
-      <c r="K207" t="s">
+      <c r="L207" t="s">
         <v>338</v>
       </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>269</v>
       </c>
-      <c r="M207" t="s">
+      <c r="N207" t="s">
         <v>270</v>
       </c>
-      <c r="N207">
+      <c r="O207">
         <v>15692</v>
       </c>
-      <c r="Q207" t="str">
-        <f>J207&amp;" "&amp;K207&amp;" "&amp;L207&amp;" "&amp;M207&amp;" "&amp;N207&amp;" "&amp;O207&amp;" "&amp;P207</f>
+      <c r="R207" t="str">
+        <f>K207&amp;" "&amp;L207&amp;" "&amp;M207&amp;" "&amp;N207&amp;" "&amp;O207&amp;" "&amp;P207&amp;" "&amp;Q207</f>
         <v xml:space="preserve">Pseudomonas aeruginosa strain ATCC 15692  </v>
       </c>
-      <c r="S207" t="s">
+      <c r="T207" t="s">
         <v>370</v>
       </c>
-      <c r="T207" t="s">
+      <c r="U207" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>69</v>
       </c>
@@ -9805,19 +9850,19 @@
         <v>337</v>
       </c>
       <c r="D208" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E208" t="s">
         <v>68</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>148</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>130</v>
       </c>
@@ -9828,11 +9873,11 @@
       <c r="E209" t="s">
         <v>21</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>178</v>
       </c>
@@ -9843,11 +9888,11 @@
       <c r="E210" t="s">
         <v>21</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>131</v>
       </c>
@@ -9858,11 +9903,11 @@
       <c r="E211" t="s">
         <v>20</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>179</v>
       </c>
@@ -9873,11 +9918,11 @@
       <c r="E212" t="s">
         <v>20</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>270</v>
       </c>
@@ -9890,36 +9935,36 @@
       <c r="E213" t="s">
         <v>81</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>256</v>
       </c>
-      <c r="G213" s="6" t="s">
+      <c r="H213" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>217</v>
       </c>
-      <c r="I213" t="s">
+      <c r="J213" t="s">
         <v>277</v>
       </c>
-      <c r="J213" t="s">
+      <c r="K213" t="s">
         <v>341</v>
       </c>
-      <c r="K213" t="s">
+      <c r="L213" t="s">
         <v>342</v>
       </c>
-      <c r="Q213" t="str">
-        <f>J213&amp;" "&amp;K213&amp;" "&amp;L213&amp;" "&amp;M213&amp;" "&amp;N213&amp;" "&amp;O213&amp;" "&amp;P213</f>
+      <c r="R213" t="str">
+        <f>K213&amp;" "&amp;L213&amp;" "&amp;M213&amp;" "&amp;N213&amp;" "&amp;O213&amp;" "&amp;P213&amp;" "&amp;Q213</f>
         <v xml:space="preserve">Rhodobacter sphaeroides     </v>
       </c>
-      <c r="S213" t="s">
+      <c r="T213" t="s">
         <v>343</v>
       </c>
-      <c r="T213" t="s">
+      <c r="U213" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>70</v>
       </c>
@@ -9932,14 +9977,14 @@
       <c r="E214" t="s">
         <v>142</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>138</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>71</v>
       </c>
@@ -9952,31 +9997,31 @@
       <c r="E215" t="s">
         <v>143</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>138</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>199</v>
       </c>
       <c r="C216" t="s">
+        <v>581</v>
+      </c>
+      <c r="D216" t="s">
         <v>582</v>
-      </c>
-      <c r="D216" t="s">
-        <v>583</v>
       </c>
       <c r="E216" t="s">
         <v>189</v>
       </c>
-      <c r="G216" s="6" t="s">
+      <c r="H216" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>209</v>
       </c>
@@ -9984,62 +10029,62 @@
         <v>439</v>
       </c>
       <c r="C217" t="s">
+        <v>583</v>
+      </c>
+      <c r="D217" t="s">
         <v>584</v>
-      </c>
-      <c r="D217" t="s">
-        <v>585</v>
       </c>
       <c r="E217" t="s">
         <v>107</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>213</v>
       </c>
-      <c r="G217" s="6" t="s">
+      <c r="H217" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>72</v>
       </c>
       <c r="C218" t="s">
+        <v>583</v>
+      </c>
+      <c r="D218" t="s">
         <v>584</v>
-      </c>
-      <c r="D218" t="s">
-        <v>585</v>
       </c>
       <c r="E218" t="s">
         <v>145</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>138</v>
       </c>
-      <c r="G218" t="s">
+      <c r="H218" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>73</v>
       </c>
       <c r="C219" t="s">
+        <v>583</v>
+      </c>
+      <c r="D219" t="s">
         <v>584</v>
-      </c>
-      <c r="D219" t="s">
-        <v>585</v>
       </c>
       <c r="E219" t="s">
         <v>144</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>138</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>198</v>
       </c>
@@ -10047,19 +10092,19 @@
         <v>439</v>
       </c>
       <c r="C220" t="s">
+        <v>585</v>
+      </c>
+      <c r="D220" t="s">
         <v>586</v>
-      </c>
-      <c r="D220" t="s">
-        <v>587</v>
       </c>
       <c r="E220" t="s">
         <v>188</v>
       </c>
-      <c r="G220" s="6" t="s">
+      <c r="H220" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>74</v>
       </c>
@@ -10067,19 +10112,19 @@
         <v>345</v>
       </c>
       <c r="D221" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E221" t="s">
         <v>85</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>141</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>233</v>
       </c>
@@ -10092,14 +10137,14 @@
       <c r="E222" t="s">
         <v>173</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>208</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="H222" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>250</v>
       </c>
@@ -10112,11 +10157,11 @@
       <c r="E223" t="s">
         <v>173</v>
       </c>
-      <c r="G223" s="6" t="s">
+      <c r="H223" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>271</v>
       </c>
@@ -10132,42 +10177,42 @@
       <c r="E224" t="s">
         <v>423</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>256</v>
       </c>
-      <c r="G224" s="6" t="s">
+      <c r="H224" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I224" t="s">
         <v>222</v>
       </c>
-      <c r="I224" t="s">
+      <c r="J224" t="s">
         <v>277</v>
       </c>
-      <c r="J224" t="s">
+      <c r="K224" t="s">
         <v>345</v>
       </c>
-      <c r="K224" t="s">
+      <c r="L224" t="s">
         <v>346</v>
       </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>269</v>
       </c>
-      <c r="M224" t="s">
+      <c r="N224" t="s">
         <v>347</v>
       </c>
-      <c r="Q224" t="str">
-        <f>J224&amp;" "&amp;K224&amp;" "&amp;L224&amp;" "&amp;M224&amp;" "&amp;N224&amp;" "&amp;O224&amp;" "&amp;P224</f>
+      <c r="R224" t="str">
+        <f>K224&amp;" "&amp;L224&amp;" "&amp;M224&amp;" "&amp;N224&amp;" "&amp;O224&amp;" "&amp;P224&amp;" "&amp;Q224</f>
         <v xml:space="preserve">Salmonella typhimurium strain LT2   </v>
       </c>
-      <c r="S224" t="s">
+      <c r="T224" t="s">
         <v>303</v>
       </c>
-      <c r="T224" t="s">
+      <c r="U224" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>132</v>
       </c>
@@ -10178,11 +10223,11 @@
       <c r="E225" t="s">
         <v>45</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>180</v>
       </c>
@@ -10193,11 +10238,11 @@
       <c r="E226" t="s">
         <v>131</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>75</v>
       </c>
@@ -10205,22 +10250,22 @@
         <v>439</v>
       </c>
       <c r="C227" t="s">
+        <v>588</v>
+      </c>
+      <c r="D227" t="s">
         <v>589</v>
-      </c>
-      <c r="D227" t="s">
-        <v>590</v>
       </c>
       <c r="E227" t="s">
         <v>47</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>135</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>133</v>
       </c>
@@ -10234,11 +10279,11 @@
       <c r="E228" t="s">
         <v>42</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>76</v>
       </c>
@@ -10254,14 +10299,14 @@
       <c r="E229" t="s">
         <v>60</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>218</v>
       </c>
@@ -10274,14 +10319,14 @@
       <c r="E230" t="s">
         <v>60</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>210</v>
       </c>
-      <c r="G230" s="6" t="s">
+      <c r="H230" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>285</v>
       </c>
@@ -10294,39 +10339,39 @@
       <c r="E231" t="s">
         <v>437</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>257</v>
       </c>
-      <c r="G231" s="6" t="s">
+      <c r="H231" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
         <v>250</v>
       </c>
-      <c r="I231" t="s">
+      <c r="J231" t="s">
         <v>386</v>
       </c>
-      <c r="J231" t="s">
+      <c r="K231" t="s">
         <v>391</v>
       </c>
-      <c r="K231" t="s">
+      <c r="L231" t="s">
         <v>392</v>
       </c>
-      <c r="L231" t="s">
+      <c r="M231" t="s">
         <v>393</v>
       </c>
-      <c r="M231">
+      <c r="N231">
         <v>1</v>
       </c>
-      <c r="Q231" t="str">
-        <f>J231&amp;" "&amp;K231&amp;" "&amp;L231&amp;" "&amp;M231&amp;" "&amp;N231&amp;" "&amp;O231&amp;" "&amp;P231</f>
+      <c r="R231" t="str">
+        <f>K231&amp;" "&amp;L231&amp;" "&amp;M231&amp;" "&amp;N231&amp;" "&amp;O231&amp;" "&amp;P231&amp;" "&amp;Q231</f>
         <v xml:space="preserve">Shewanella oneidensis MR 1   </v>
       </c>
-      <c r="S231" t="s">
+      <c r="T231" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>77</v>
       </c>
@@ -10337,19 +10382,19 @@
         <v>391</v>
       </c>
       <c r="D232" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E232" t="s">
         <v>156</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>78</v>
       </c>
@@ -10357,19 +10402,19 @@
         <v>391</v>
       </c>
       <c r="D233" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E233" t="s">
         <v>151</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="G233" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>134</v>
       </c>
@@ -10380,11 +10425,11 @@
       <c r="E234" t="s">
         <v>4</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>181</v>
       </c>
@@ -10395,11 +10440,11 @@
       <c r="E235" t="s">
         <v>4</v>
       </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>135</v>
       </c>
@@ -10410,11 +10455,11 @@
       <c r="E236" t="s">
         <v>5</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>136</v>
       </c>
@@ -10425,11 +10470,11 @@
       <c r="E237" t="s">
         <v>5</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>182</v>
       </c>
@@ -10440,11 +10485,11 @@
       <c r="E238" t="s">
         <v>5</v>
       </c>
-      <c r="G238" t="s">
+      <c r="H238" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>137</v>
       </c>
@@ -10458,11 +10503,11 @@
       <c r="E239" t="s">
         <v>46</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>183</v>
       </c>
@@ -10473,11 +10518,11 @@
       <c r="E240" t="s">
         <v>46</v>
       </c>
-      <c r="G240" t="s">
+      <c r="H240" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>79</v>
       </c>
@@ -10485,22 +10530,22 @@
         <v>439</v>
       </c>
       <c r="C241" t="s">
+        <v>591</v>
+      </c>
+      <c r="D241" t="s">
         <v>592</v>
-      </c>
-      <c r="D241" t="s">
-        <v>593</v>
       </c>
       <c r="E241" t="s">
         <v>90</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>140</v>
       </c>
-      <c r="G241" t="s">
+      <c r="H241" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>138</v>
       </c>
@@ -10511,11 +10556,11 @@
       <c r="E242" t="s">
         <v>31</v>
       </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>184</v>
       </c>
@@ -10526,11 +10571,11 @@
       <c r="E243" t="s">
         <v>31</v>
       </c>
-      <c r="G243" t="s">
+      <c r="H243" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>213</v>
       </c>
@@ -10538,22 +10583,22 @@
         <v>439</v>
       </c>
       <c r="C244" t="s">
+        <v>593</v>
+      </c>
+      <c r="D244" t="s">
         <v>594</v>
-      </c>
-      <c r="D244" t="s">
-        <v>595</v>
       </c>
       <c r="E244" t="s">
         <v>197</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>212</v>
       </c>
-      <c r="G244" s="6" t="s">
+      <c r="H244" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>272</v>
       </c>
@@ -10569,36 +10614,36 @@
       <c r="E245" t="s">
         <v>424</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>256</v>
       </c>
-      <c r="G245" s="6" t="s">
+      <c r="H245" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H245" t="s">
+      <c r="I245" t="s">
         <v>233</v>
       </c>
-      <c r="I245" t="s">
+      <c r="J245" t="s">
         <v>277</v>
       </c>
-      <c r="J245" t="s">
+      <c r="K245" t="s">
         <v>349</v>
       </c>
-      <c r="K245" t="s">
+      <c r="L245" t="s">
         <v>350</v>
       </c>
-      <c r="Q245" t="str">
-        <f>J245&amp;" "&amp;K245&amp;" "&amp;L245&amp;" "&amp;M245&amp;" "&amp;N245&amp;" "&amp;O245&amp;" "&amp;P245</f>
+      <c r="R245" t="str">
+        <f>K245&amp;" "&amp;L245&amp;" "&amp;M245&amp;" "&amp;N245&amp;" "&amp;O245&amp;" "&amp;P245&amp;" "&amp;Q245</f>
         <v xml:space="preserve">Streptococcus pneumoniae     </v>
       </c>
-      <c r="S245" t="s">
+      <c r="T245" t="s">
         <v>351</v>
       </c>
-      <c r="T245" t="s">
+      <c r="U245" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>273</v>
       </c>
@@ -10611,56 +10656,56 @@
       <c r="E246" t="s">
         <v>424</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>256</v>
       </c>
-      <c r="G246" s="6" t="s">
+      <c r="H246" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H246" t="s">
+      <c r="I246" t="s">
         <v>236</v>
       </c>
-      <c r="I246" t="s">
+      <c r="J246" t="s">
         <v>277</v>
       </c>
-      <c r="J246" t="s">
+      <c r="K246" t="s">
         <v>349</v>
       </c>
-      <c r="K246" t="s">
+      <c r="L246" t="s">
         <v>350</v>
       </c>
-      <c r="Q246" t="str">
-        <f>J246&amp;" "&amp;K246&amp;" "&amp;L246&amp;" "&amp;M246&amp;" "&amp;N246&amp;" "&amp;O246&amp;" "&amp;P246</f>
+      <c r="R246" t="str">
+        <f>K246&amp;" "&amp;L246&amp;" "&amp;M246&amp;" "&amp;N246&amp;" "&amp;O246&amp;" "&amp;P246&amp;" "&amp;Q246</f>
         <v xml:space="preserve">Streptococcus pneumoniae     </v>
       </c>
-      <c r="S246" t="s">
+      <c r="T246" t="s">
         <v>353</v>
       </c>
-      <c r="T246" t="s">
+      <c r="U246" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>80</v>
       </c>
       <c r="C247" t="s">
+        <v>595</v>
+      </c>
+      <c r="D247" t="s">
         <v>596</v>
-      </c>
-      <c r="D247" t="s">
-        <v>597</v>
       </c>
       <c r="E247" t="s">
         <v>104</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>139</v>
       </c>
-      <c r="G247" t="s">
+      <c r="H247" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>81</v>
       </c>
@@ -10668,39 +10713,39 @@
         <v>439</v>
       </c>
       <c r="C248" t="s">
+        <v>597</v>
+      </c>
+      <c r="D248" t="s">
         <v>598</v>
-      </c>
-      <c r="D248" t="s">
-        <v>599</v>
       </c>
       <c r="E248" t="s">
         <v>48</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>135</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>190</v>
       </c>
       <c r="C249" t="s">
+        <v>599</v>
+      </c>
+      <c r="D249" t="s">
         <v>600</v>
-      </c>
-      <c r="D249" t="s">
-        <v>601</v>
       </c>
       <c r="E249" t="s">
         <v>180</v>
       </c>
-      <c r="G249" s="6" t="s">
+      <c r="H249" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>82</v>
       </c>
@@ -10708,22 +10753,22 @@
         <v>439</v>
       </c>
       <c r="C250" t="s">
+        <v>601</v>
+      </c>
+      <c r="D250" t="s">
         <v>602</v>
-      </c>
-      <c r="D250" t="s">
-        <v>603</v>
       </c>
       <c r="E250" t="s">
         <v>106</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>137</v>
       </c>
-      <c r="G250" t="s">
+      <c r="H250" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>193</v>
       </c>
@@ -10731,19 +10776,19 @@
         <v>439</v>
       </c>
       <c r="C251" t="s">
+        <v>603</v>
+      </c>
+      <c r="D251" t="s">
         <v>604</v>
-      </c>
-      <c r="D251" t="s">
-        <v>605</v>
       </c>
       <c r="E251" t="s">
         <v>183</v>
       </c>
-      <c r="G251" s="6" t="s">
+      <c r="H251" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>83</v>
       </c>
@@ -10751,22 +10796,22 @@
         <v>439</v>
       </c>
       <c r="C252" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E252" t="s">
         <v>123</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>135</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>84</v>
       </c>
@@ -10774,22 +10819,22 @@
         <v>439</v>
       </c>
       <c r="C253" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D253" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E253" t="s">
         <v>76</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>148</v>
       </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>185</v>
       </c>
@@ -10800,11 +10845,11 @@
       <c r="E254" t="s">
         <v>132</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>139</v>
       </c>
@@ -10815,11 +10860,11 @@
       <c r="E255" t="s">
         <v>3</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>85</v>
       </c>
@@ -10827,42 +10872,42 @@
         <v>439</v>
       </c>
       <c r="C256" t="s">
+        <v>607</v>
+      </c>
+      <c r="D256" t="s">
         <v>608</v>
-      </c>
-      <c r="D256" t="s">
-        <v>609</v>
       </c>
       <c r="E256" t="s">
         <v>146</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>140</v>
       </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>86</v>
       </c>
       <c r="C257" t="s">
+        <v>607</v>
+      </c>
+      <c r="D257" t="s">
         <v>608</v>
-      </c>
-      <c r="D257" t="s">
-        <v>609</v>
       </c>
       <c r="E257" t="s">
         <v>147</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>140</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>186</v>
       </c>
@@ -10873,11 +10918,11 @@
       <c r="E258" t="s">
         <v>133</v>
       </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>140</v>
       </c>
@@ -10888,31 +10933,31 @@
       <c r="E259" t="s">
         <v>33</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>87</v>
       </c>
       <c r="C260" t="s">
+        <v>609</v>
+      </c>
+      <c r="D260" t="s">
         <v>610</v>
-      </c>
-      <c r="D260" t="s">
-        <v>611</v>
       </c>
       <c r="E260" t="s">
         <v>75</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>148</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>197</v>
       </c>
@@ -10923,16 +10968,16 @@
         <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E261" t="s">
         <v>187</v>
       </c>
-      <c r="G261" s="6" t="s">
+      <c r="H261" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>274</v>
       </c>
@@ -10945,42 +10990,42 @@
       <c r="E262" t="s">
         <v>425</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>258</v>
       </c>
-      <c r="G262" s="6" t="s">
+      <c r="H262" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H262" t="s">
+      <c r="I262" t="s">
         <v>240</v>
       </c>
-      <c r="I262" t="s">
+      <c r="J262" t="s">
         <v>277</v>
       </c>
-      <c r="J262" t="s">
+      <c r="K262" t="s">
         <v>354</v>
       </c>
-      <c r="K262" t="s">
+      <c r="L262" t="s">
         <v>355</v>
       </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
         <v>269</v>
       </c>
-      <c r="M262" t="s">
+      <c r="N262" t="s">
         <v>356</v>
       </c>
-      <c r="Q262" t="str">
-        <f>J262&amp;" "&amp;K262&amp;" "&amp;L262&amp;" "&amp;M262&amp;" "&amp;N262&amp;" "&amp;O262&amp;" "&amp;P262</f>
+      <c r="R262" t="str">
+        <f>K262&amp;" "&amp;L262&amp;" "&amp;M262&amp;" "&amp;N262&amp;" "&amp;O262&amp;" "&amp;P262&amp;" "&amp;Q262</f>
         <v xml:space="preserve">Treponema pallidum strain Nichols   </v>
       </c>
-      <c r="S262" t="s">
+      <c r="T262" t="s">
         <v>303</v>
       </c>
-      <c r="T262" t="s">
+      <c r="U262" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>286</v>
       </c>
@@ -10996,36 +11041,36 @@
       <c r="E263" t="s">
         <v>434</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>257</v>
       </c>
-      <c r="G263" s="6" t="s">
+      <c r="H263" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H263" t="s">
+      <c r="I263" t="s">
         <v>246</v>
       </c>
-      <c r="I263" t="s">
+      <c r="J263" t="s">
         <v>386</v>
       </c>
-      <c r="J263" t="s">
+      <c r="K263" t="s">
         <v>358</v>
       </c>
-      <c r="K263" t="s">
+      <c r="L263" t="s">
         <v>394</v>
       </c>
-      <c r="Q263" t="str">
-        <f>J263&amp;" "&amp;K263&amp;" "&amp;L263&amp;" "&amp;M263&amp;" "&amp;N263&amp;" "&amp;O263&amp;" "&amp;P263</f>
+      <c r="R263" t="str">
+        <f>K263&amp;" "&amp;L263&amp;" "&amp;M263&amp;" "&amp;N263&amp;" "&amp;O263&amp;" "&amp;P263&amp;" "&amp;Q263</f>
         <v xml:space="preserve">Vibrio alginolyticus     </v>
       </c>
-      <c r="S263" t="s">
+      <c r="T263" t="s">
         <v>395</v>
       </c>
-      <c r="T263" t="s">
+      <c r="U263" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>287</v>
       </c>
@@ -11041,51 +11086,51 @@
       <c r="E264" t="s">
         <v>435</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>257</v>
       </c>
-      <c r="G264" s="6" t="s">
+      <c r="H264" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H264" t="s">
+      <c r="I264" t="s">
         <v>249</v>
       </c>
-      <c r="I264" t="s">
+      <c r="J264" t="s">
         <v>386</v>
       </c>
-      <c r="J264" t="s">
+      <c r="K264" t="s">
         <v>358</v>
       </c>
-      <c r="K264" t="s">
+      <c r="L264" t="s">
         <v>397</v>
       </c>
-      <c r="L264" t="s">
+      <c r="M264" t="s">
         <v>398</v>
       </c>
-      <c r="M264" t="s">
+      <c r="N264" t="s">
         <v>399</v>
       </c>
-      <c r="N264" t="s">
+      <c r="O264" t="s">
         <v>269</v>
       </c>
-      <c r="O264" t="s">
+      <c r="P264" t="s">
         <v>270</v>
       </c>
-      <c r="P264">
+      <c r="Q264">
         <v>39315</v>
       </c>
-      <c r="Q264" t="str">
-        <f>J264&amp;" "&amp;K264&amp;" "&amp;L264&amp;" "&amp;M264&amp;" "&amp;N264&amp;" "&amp;O264&amp;" "&amp;P264</f>
+      <c r="R264" t="str">
+        <f>K264&amp;" "&amp;L264&amp;" "&amp;M264&amp;" "&amp;N264&amp;" "&amp;O264&amp;" "&amp;P264&amp;" "&amp;Q264</f>
         <v>Vibrio cholerae serotype O1 strain ATCC 39315</v>
       </c>
-      <c r="S264" t="s">
+      <c r="T264" t="s">
         <v>400</v>
       </c>
-      <c r="T264" t="s">
+      <c r="U264" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>88</v>
       </c>
@@ -11101,14 +11146,14 @@
       <c r="E265" t="s">
         <v>65</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G265" t="s">
+      <c r="H265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>288</v>
       </c>
@@ -11121,33 +11166,33 @@
       <c r="E266" t="s">
         <v>436</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
         <v>257</v>
       </c>
-      <c r="G266" s="6" t="s">
+      <c r="H266" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H266" t="s">
+      <c r="I266" t="s">
         <v>247</v>
       </c>
-      <c r="I266" t="s">
+      <c r="J266" t="s">
         <v>386</v>
       </c>
-      <c r="J266" t="s">
+      <c r="K266" t="s">
         <v>358</v>
       </c>
-      <c r="K266" t="s">
+      <c r="L266" t="s">
         <v>402</v>
       </c>
-      <c r="Q266" t="str">
-        <f>J266&amp;" "&amp;K266&amp;" "&amp;L266&amp;" "&amp;M266&amp;" "&amp;N266&amp;" "&amp;O266&amp;" "&amp;P266</f>
+      <c r="R266" t="str">
+        <f>K266&amp;" "&amp;L266&amp;" "&amp;M266&amp;" "&amp;N266&amp;" "&amp;O266&amp;" "&amp;P266&amp;" "&amp;Q266</f>
         <v xml:space="preserve">Vibrio parahaemolyticus     </v>
       </c>
-      <c r="S266" t="s">
+      <c r="T266" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>221</v>
       </c>
@@ -11160,14 +11205,14 @@
       <c r="E267" t="s">
         <v>203</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
         <v>210</v>
       </c>
-      <c r="G267" s="6" t="s">
+      <c r="H267" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>225</v>
       </c>
@@ -11180,14 +11225,14 @@
       <c r="E268" t="s">
         <v>163</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>209</v>
       </c>
-      <c r="G268" s="6" t="s">
+      <c r="H268" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>239</v>
       </c>
@@ -11200,11 +11245,11 @@
       <c r="E269" t="s">
         <v>163</v>
       </c>
-      <c r="G269" s="6" t="s">
+      <c r="H269" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>275</v>
       </c>
@@ -11220,33 +11265,33 @@
       <c r="E270" t="s">
         <v>426</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>257</v>
       </c>
-      <c r="G270" s="6" t="s">
+      <c r="H270" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H270" t="s">
+      <c r="I270" t="s">
         <v>248</v>
       </c>
-      <c r="I270" t="s">
+      <c r="J270" t="s">
         <v>277</v>
       </c>
-      <c r="J270" t="s">
+      <c r="K270" t="s">
         <v>358</v>
       </c>
-      <c r="K270" t="s">
+      <c r="L270" t="s">
         <v>359</v>
       </c>
-      <c r="Q270" t="str">
-        <f>J270&amp;" "&amp;K270&amp;" "&amp;L270&amp;" "&amp;M270&amp;" "&amp;N270&amp;" "&amp;O270&amp;" "&amp;P270</f>
+      <c r="R270" t="str">
+        <f>K270&amp;" "&amp;L270&amp;" "&amp;M270&amp;" "&amp;N270&amp;" "&amp;O270&amp;" "&amp;P270&amp;" "&amp;Q270</f>
         <v xml:space="preserve">Vibrio splendidus     </v>
       </c>
-      <c r="S270" t="s">
+      <c r="T270" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>89</v>
       </c>
@@ -11257,19 +11302,19 @@
         <v>358</v>
       </c>
       <c r="D271" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E271" t="s">
         <v>64</v>
       </c>
-      <c r="F271" s="1" t="s">
+      <c r="G271" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G271" t="s">
+      <c r="H271" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>141</v>
       </c>
@@ -11280,11 +11325,11 @@
       <c r="E272" t="s">
         <v>10</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>187</v>
       </c>
@@ -11295,11 +11340,11 @@
       <c r="E273" t="s">
         <v>10</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>142</v>
       </c>
@@ -11310,11 +11355,11 @@
       <c r="E274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
+      <c r="H274" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>188</v>
       </c>
@@ -11325,11 +11370,11 @@
       <c r="E275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
+      <c r="H275" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>90</v>
       </c>
@@ -11337,39 +11382,39 @@
         <v>439</v>
       </c>
       <c r="C276" t="s">
+        <v>613</v>
+      </c>
+      <c r="D276" t="s">
         <v>614</v>
-      </c>
-      <c r="D276" t="s">
-        <v>615</v>
       </c>
       <c r="E276" t="s">
         <v>116</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>136</v>
       </c>
-      <c r="G276" t="s">
+      <c r="H276" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>202</v>
       </c>
       <c r="C277" t="s">
+        <v>613</v>
+      </c>
+      <c r="D277" t="s">
         <v>614</v>
-      </c>
-      <c r="D277" t="s">
-        <v>615</v>
       </c>
       <c r="E277" t="s">
         <v>116</v>
       </c>
-      <c r="G277" s="6" t="s">
+      <c r="H277" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>216</v>
       </c>
@@ -11377,22 +11422,22 @@
         <v>439</v>
       </c>
       <c r="C278" t="s">
+        <v>615</v>
+      </c>
+      <c r="D278" t="s">
         <v>616</v>
-      </c>
-      <c r="D278" t="s">
-        <v>617</v>
       </c>
       <c r="E278" t="s">
         <v>200</v>
       </c>
-      <c r="F278" t="s">
+      <c r="G278" t="s">
         <v>210</v>
       </c>
-      <c r="G278" s="6" t="s">
+      <c r="H278" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>276</v>
       </c>
@@ -11408,48 +11453,48 @@
       <c r="E279" t="s">
         <v>427</v>
       </c>
-      <c r="F279" t="s">
+      <c r="G279" t="s">
         <v>256</v>
       </c>
-      <c r="G279" s="6" t="s">
+      <c r="H279" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H279" t="s">
+      <c r="I279" t="s">
         <v>220</v>
       </c>
-      <c r="I279" t="s">
+      <c r="J279" t="s">
         <v>277</v>
       </c>
-      <c r="J279" t="s">
+      <c r="K279" t="s">
         <v>361</v>
       </c>
-      <c r="K279" t="s">
+      <c r="L279" t="s">
         <v>362</v>
       </c>
-      <c r="L279" t="s">
+      <c r="M279" t="s">
         <v>363</v>
       </c>
-      <c r="M279" t="s">
+      <c r="N279" t="s">
         <v>364</v>
       </c>
-      <c r="N279" t="s">
+      <c r="O279" t="s">
         <v>365</v>
       </c>
-      <c r="O279" t="s">
+      <c r="P279" t="s">
         <v>366</v>
       </c>
-      <c r="Q279" t="str">
-        <f>J279&amp;" "&amp;K279&amp;" "&amp;L279&amp;" "&amp;M279&amp;" "&amp;N279&amp;" "&amp;O279&amp;" "&amp;P279</f>
+      <c r="R279" t="str">
+        <f>K279&amp;" "&amp;L279&amp;" "&amp;M279&amp;" "&amp;N279&amp;" "&amp;O279&amp;" "&amp;P279&amp;" "&amp;Q279</f>
         <v xml:space="preserve">Yersinia pestis biovar Orientalis str IP275 </v>
       </c>
-      <c r="S279" t="s">
+      <c r="T279" t="s">
         <v>367</v>
       </c>
-      <c r="T279" t="s">
+      <c r="U279" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>234</v>
       </c>
@@ -11457,19 +11502,19 @@
         <v>361</v>
       </c>
       <c r="D280" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E280" t="s">
         <v>171</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>208</v>
       </c>
-      <c r="G280" s="6" t="s">
+      <c r="H280" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>248</v>
       </c>
@@ -11477,16 +11522,16 @@
         <v>361</v>
       </c>
       <c r="D281" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E281" t="s">
         <v>171</v>
       </c>
-      <c r="G281" s="6" t="s">
+      <c r="H281" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>226</v>
       </c>
@@ -11494,19 +11539,19 @@
         <v>361</v>
       </c>
       <c r="D282" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E282" t="s">
         <v>165</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>209</v>
       </c>
-      <c r="G282" s="6" t="s">
+      <c r="H282" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>241</v>
       </c>
@@ -11514,16 +11559,16 @@
         <v>361</v>
       </c>
       <c r="D283" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E283" t="s">
         <v>165</v>
       </c>
-      <c r="G283" s="6" t="s">
+      <c r="H283" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>143</v>
       </c>
@@ -11534,11 +11579,11 @@
       <c r="E284" t="s">
         <v>41</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>189</v>
       </c>
@@ -11549,11 +11594,11 @@
       <c r="E285" t="s">
         <v>41</v>
       </c>
-      <c r="G285" t="s">
+      <c r="H285" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>91</v>
       </c>
@@ -11561,88 +11606,102 @@
         <v>439</v>
       </c>
       <c r="C286" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D286" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E286" t="s">
         <v>78</v>
       </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>138</v>
       </c>
-      <c r="G286" t="s">
+      <c r="H286" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>215</v>
       </c>
       <c r="C287" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D287" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E287" t="s">
         <v>78</v>
       </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>211</v>
       </c>
-      <c r="G287" s="6" t="s">
+      <c r="H287" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>237</v>
       </c>
       <c r="C288" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D288" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E288" t="s">
         <v>78</v>
       </c>
-      <c r="G288" s="6" t="s">
+      <c r="H288" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C289" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D289" s="4" t="s">
+      <c r="E289" t="s">
+        <v>622</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C290" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E289" t="s">
-        <v>623</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C290" s="4" t="s">
+      <c r="D290" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D290" s="4" t="s">
+      <c r="E290" t="s">
         <v>627</v>
       </c>
-      <c r="E290" t="s">
+      <c r="H290" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="G290" s="6" t="s">
-        <v>629</v>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C291" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E291" t="s">
+        <v>636</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T288">
+  <sortState ref="A2:U288">
     <sortCondition ref="E2:E288"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEDDC9-ECDD-7D4F-AF72-8A528A95DFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B5A570-01C2-8F40-9C9C-37A2209BF5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="3380" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="2880" yWindow="700" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="merge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="630">
   <si>
     <t>Species used in Figures 1B and C</t>
   </si>
@@ -1967,7 +1978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1980,7 +1991,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4794,7 +4804,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="P3:Q680">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P3:Q680">
     <sortCondition ref="P3:P680"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5086,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5D3D-DF78-3F49-A41C-226229F9925D}">
   <dimension ref="A1:T290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5193,7 @@
       <c r="F4" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>216</v>
       </c>
       <c r="H4" t="s">
@@ -5225,7 +5235,7 @@
       <c r="F5" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>216</v>
       </c>
       <c r="H5" t="s">
@@ -5290,7 +5300,7 @@
       <c r="F7" t="s">
         <v>256</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>216</v>
       </c>
       <c r="H7" t="s">
@@ -5344,7 +5354,7 @@
       <c r="F8" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>216</v>
       </c>
       <c r="H8" t="s">
@@ -5505,7 +5515,7 @@
       <c r="F16" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5551,7 +5561,7 @@
       <c r="F18" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>216</v>
       </c>
       <c r="H18" t="s">
@@ -5701,7 +5711,7 @@
       <c r="E25" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5721,7 +5731,7 @@
       <c r="F26" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" t="s">
         <v>216</v>
       </c>
       <c r="H26" t="s">
@@ -5743,7 +5753,7 @@
         <v>293</v>
       </c>
       <c r="Q26" t="str">
-        <f>J26&amp;" "&amp;K26&amp;" "&amp;L26&amp;" "&amp;M26&amp;" "&amp;N26&amp;" "&amp;O26&amp;" "&amp;P26</f>
+        <f t="shared" ref="Q26:Q33" si="0">J26&amp;" "&amp;K26&amp;" "&amp;L26&amp;" "&amp;M26&amp;" "&amp;N26&amp;" "&amp;O26&amp;" "&amp;P26</f>
         <v xml:space="preserve">Aquifex aeolicus strain VF5   </v>
       </c>
       <c r="S26" t="s">
@@ -5769,7 +5779,7 @@
       <c r="F27" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" t="s">
         <v>216</v>
       </c>
       <c r="H27" t="s">
@@ -5791,7 +5801,7 @@
         <v>293</v>
       </c>
       <c r="Q27" t="str">
-        <f>J27&amp;" "&amp;K27&amp;" "&amp;L27&amp;" "&amp;M27&amp;" "&amp;N27&amp;" "&amp;O27&amp;" "&amp;P27</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Aquifex aeolicus strain VF5   </v>
       </c>
       <c r="S27" t="s">
@@ -5820,7 +5830,7 @@
       <c r="F28" t="s">
         <v>259</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>216</v>
       </c>
       <c r="H28" t="s">
@@ -5836,7 +5846,7 @@
         <v>372</v>
       </c>
       <c r="Q28" t="str">
-        <f>J28&amp;" "&amp;K28&amp;" "&amp;L28&amp;" "&amp;M28&amp;" "&amp;N28&amp;" "&amp;O28&amp;" "&amp;P28</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus alcalophilus     </v>
       </c>
       <c r="S28" t="s">
@@ -5865,7 +5875,7 @@
       <c r="F29" t="s">
         <v>258</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>216</v>
       </c>
       <c r="H29" t="s">
@@ -5890,7 +5900,7 @@
         <v>299</v>
       </c>
       <c r="Q29" t="str">
-        <f>J29&amp;" "&amp;K29&amp;" "&amp;L29&amp;" "&amp;M29&amp;" "&amp;N29&amp;" "&amp;O29&amp;" "&amp;P29</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus clausii strain KSM K16  </v>
       </c>
       <c r="S29" t="s">
@@ -5919,7 +5929,7 @@
       <c r="F30" t="s">
         <v>257</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>216</v>
       </c>
       <c r="H30" t="s">
@@ -5944,7 +5954,7 @@
         <v>125</v>
       </c>
       <c r="Q30" t="str">
-        <f>J30&amp;" "&amp;K30&amp;" "&amp;L30&amp;" "&amp;M30&amp;" "&amp;N30&amp;" "&amp;O30&amp;" "&amp;P30</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus halodurans strain ATCC BAA 125 </v>
       </c>
       <c r="S30" t="s">
@@ -5973,7 +5983,7 @@
       <c r="F31" t="s">
         <v>257</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>216</v>
       </c>
       <c r="H31" t="s">
@@ -5989,7 +5999,7 @@
         <v>274</v>
       </c>
       <c r="Q31" t="str">
-        <f>J31&amp;" "&amp;K31&amp;" "&amp;L31&amp;" "&amp;M31&amp;" "&amp;N31&amp;" "&amp;O31&amp;" "&amp;P31</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus licheniformis     </v>
       </c>
       <c r="S31" t="s">
@@ -6015,7 +6025,7 @@
       <c r="F32" t="s">
         <v>256</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" t="s">
         <v>216</v>
       </c>
       <c r="H32" t="s">
@@ -6037,7 +6047,7 @@
         <v>14580</v>
       </c>
       <c r="Q32" t="str">
-        <f>J32&amp;" "&amp;K32&amp;" "&amp;L32&amp;" "&amp;M32&amp;" "&amp;N32&amp;" "&amp;O32&amp;" "&amp;P32</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus licheniformis strain ATCC 14580  </v>
       </c>
       <c r="S32" t="s">
@@ -6066,7 +6076,7 @@
       <c r="F33" t="s">
         <v>257</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>216</v>
       </c>
       <c r="H33" t="s">
@@ -6088,7 +6098,7 @@
         <v>378</v>
       </c>
       <c r="Q33" t="str">
-        <f>J33&amp;" "&amp;K33&amp;" "&amp;L33&amp;" "&amp;M33&amp;" "&amp;N33&amp;" "&amp;O33&amp;" "&amp;P33</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bacillus pseudofirmus strain OF4   </v>
       </c>
       <c r="S33" t="s">
@@ -6111,7 +6121,7 @@
       <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6134,7 +6144,7 @@
       <c r="F35" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>216</v>
       </c>
       <c r="H35" t="s">
@@ -6185,7 +6195,7 @@
       <c r="F36" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>216</v>
       </c>
       <c r="H36" t="s">
@@ -6236,7 +6246,7 @@
       <c r="F37" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" t="s">
         <v>216</v>
       </c>
       <c r="H37" t="s">
@@ -6287,7 +6297,7 @@
       <c r="E38" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6353,7 +6363,7 @@
       <c r="E41" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6430,7 +6440,7 @@
       <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6470,7 +6480,7 @@
       <c r="E48" t="s">
         <v>186</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6490,7 +6500,7 @@
       <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6510,7 +6520,7 @@
       <c r="F50" t="s">
         <v>209</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6553,7 +6563,7 @@
       <c r="E52" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6570,7 +6580,7 @@
       <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6657,7 +6667,7 @@
       <c r="E58" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6846,7 +6856,7 @@
       <c r="F68" t="s">
         <v>213</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6919,7 +6929,7 @@
       <c r="E72" t="s">
         <v>167</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6936,7 +6946,7 @@
       <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6956,7 +6966,7 @@
       <c r="F74" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6973,7 +6983,7 @@
       <c r="E75" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6993,7 +7003,7 @@
       <c r="E76" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7016,7 +7026,7 @@
       <c r="F77" t="s">
         <v>210</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7304,7 +7314,7 @@
       <c r="E92" t="s">
         <v>96</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7370,7 +7380,7 @@
       <c r="F95" t="s">
         <v>256</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" t="s">
         <v>216</v>
       </c>
       <c r="H95" t="s">
@@ -7421,7 +7431,7 @@
       <c r="E96" t="s">
         <v>193</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7510,7 +7520,7 @@
       <c r="F101" t="s">
         <v>208</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7527,7 +7537,7 @@
       <c r="E102" t="s">
         <v>170</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7567,7 +7577,7 @@
       <c r="F104" t="s">
         <v>208</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7587,7 +7597,7 @@
       <c r="E105" t="s">
         <v>175</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" t="s">
         <v>176</v>
       </c>
       <c r="S105" t="s">
@@ -7610,7 +7620,7 @@
       <c r="E106" t="s">
         <v>166</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G106" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7627,7 +7637,7 @@
       <c r="E107" t="s">
         <v>174</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G107" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7647,7 +7657,7 @@
       <c r="F108" t="s">
         <v>256</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" t="s">
         <v>216</v>
       </c>
       <c r="H108" t="s">
@@ -7728,7 +7738,7 @@
       <c r="F111" t="s">
         <v>256</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" t="s">
         <v>216</v>
       </c>
       <c r="H111" t="s">
@@ -7934,7 +7944,7 @@
       <c r="F120" t="s">
         <v>213</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8000,7 +8010,7 @@
       <c r="E123" t="s">
         <v>190</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="G123" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8020,7 +8030,7 @@
       <c r="F124" t="s">
         <v>256</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G124" t="s">
         <v>216</v>
       </c>
       <c r="H124" t="s">
@@ -8150,7 +8160,7 @@
       <c r="F129" t="s">
         <v>210</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="G129" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8216,7 +8226,7 @@
       <c r="F132" t="s">
         <v>210</v>
       </c>
-      <c r="G132" s="6" t="s">
+      <c r="G132" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8233,7 +8243,7 @@
       <c r="E133" t="s">
         <v>161</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G133" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8276,7 +8286,7 @@
       <c r="F135" t="s">
         <v>258</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" t="s">
         <v>216</v>
       </c>
       <c r="H135" t="s">
@@ -8333,7 +8343,7 @@
       <c r="E136" t="s">
         <v>185</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="G136" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8350,7 +8360,7 @@
       <c r="E137" t="s">
         <v>184</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="G137" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8561,7 +8571,7 @@
       <c r="F148" t="s">
         <v>212</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="G148" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9016,7 +9026,7 @@
       <c r="F173" t="s">
         <v>256</v>
       </c>
-      <c r="G173" s="6" t="s">
+      <c r="G173" t="s">
         <v>216</v>
       </c>
       <c r="H173" t="s">
@@ -9113,7 +9123,7 @@
       <c r="F176" t="s">
         <v>260</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="G176" t="s">
         <v>216</v>
       </c>
       <c r="H176" t="s">
@@ -9250,7 +9260,7 @@
       <c r="F181" t="s">
         <v>210</v>
       </c>
-      <c r="G181" s="6" t="s">
+      <c r="G181" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9270,7 +9280,7 @@
       <c r="F182" t="s">
         <v>209</v>
       </c>
-      <c r="G182" s="6" t="s">
+      <c r="G182" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9287,7 +9297,7 @@
       <c r="E183" t="s">
         <v>162</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G183" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9355,7 +9365,7 @@
       <c r="F187" t="s">
         <v>208</v>
       </c>
-      <c r="G187" s="6" t="s">
+      <c r="G187" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9372,7 +9382,7 @@
       <c r="E188" t="s">
         <v>172</v>
       </c>
-      <c r="G188" s="6" t="s">
+      <c r="G188" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9685,7 +9695,7 @@
       <c r="F205" t="s">
         <v>210</v>
       </c>
-      <c r="G205" s="6" t="s">
+      <c r="G205" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9708,7 +9718,7 @@
       <c r="F206" t="s">
         <v>256</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="G206" t="s">
         <v>216</v>
       </c>
       <c r="H206" t="s">
@@ -9759,7 +9769,7 @@
       <c r="F207" t="s">
         <v>256</v>
       </c>
-      <c r="G207" s="6" t="s">
+      <c r="G207" t="s">
         <v>216</v>
       </c>
       <c r="H207" t="s">
@@ -9893,7 +9903,7 @@
       <c r="F213" t="s">
         <v>256</v>
       </c>
-      <c r="G213" s="6" t="s">
+      <c r="G213" t="s">
         <v>216</v>
       </c>
       <c r="H213" t="s">
@@ -9972,7 +9982,7 @@
       <c r="E216" t="s">
         <v>189</v>
       </c>
-      <c r="G216" s="6" t="s">
+      <c r="G216" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9995,7 +10005,7 @@
       <c r="F217" t="s">
         <v>213</v>
       </c>
-      <c r="G217" s="6" t="s">
+      <c r="G217" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10055,7 +10065,7 @@
       <c r="E220" t="s">
         <v>188</v>
       </c>
-      <c r="G220" s="6" t="s">
+      <c r="G220" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10095,7 +10105,7 @@
       <c r="F222" t="s">
         <v>208</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="G222" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10112,7 +10122,7 @@
       <c r="E223" t="s">
         <v>173</v>
       </c>
-      <c r="G223" s="6" t="s">
+      <c r="G223" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10135,7 +10145,7 @@
       <c r="F224" t="s">
         <v>256</v>
       </c>
-      <c r="G224" s="6" t="s">
+      <c r="G224" t="s">
         <v>216</v>
       </c>
       <c r="H224" t="s">
@@ -10277,7 +10287,7 @@
       <c r="F230" t="s">
         <v>210</v>
       </c>
-      <c r="G230" s="6" t="s">
+      <c r="G230" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10297,7 +10307,7 @@
       <c r="F231" t="s">
         <v>257</v>
       </c>
-      <c r="G231" s="6" t="s">
+      <c r="G231" t="s">
         <v>216</v>
       </c>
       <c r="H231" t="s">
@@ -10549,7 +10559,7 @@
       <c r="F244" t="s">
         <v>212</v>
       </c>
-      <c r="G244" s="6" t="s">
+      <c r="G244" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10572,7 +10582,7 @@
       <c r="F245" t="s">
         <v>256</v>
       </c>
-      <c r="G245" s="6" t="s">
+      <c r="G245" t="s">
         <v>216</v>
       </c>
       <c r="H245" t="s">
@@ -10614,7 +10624,7 @@
       <c r="F246" t="s">
         <v>256</v>
       </c>
-      <c r="G246" s="6" t="s">
+      <c r="G246" t="s">
         <v>216</v>
       </c>
       <c r="H246" t="s">
@@ -10696,7 +10706,7 @@
       <c r="E249" t="s">
         <v>180</v>
       </c>
-      <c r="G249" s="6" t="s">
+      <c r="G249" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10739,7 +10749,7 @@
       <c r="E251" t="s">
         <v>183</v>
       </c>
-      <c r="G251" s="6" t="s">
+      <c r="G251" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10896,6 +10906,9 @@
       <c r="A260">
         <v>87</v>
       </c>
+      <c r="B260" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="C260" t="s">
         <v>610</v>
       </c>
@@ -10928,7 +10941,7 @@
       <c r="E261" t="s">
         <v>187</v>
       </c>
-      <c r="G261" s="6" t="s">
+      <c r="G261" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10948,7 +10961,7 @@
       <c r="F262" t="s">
         <v>258</v>
       </c>
-      <c r="G262" s="6" t="s">
+      <c r="G262" t="s">
         <v>216</v>
       </c>
       <c r="H262" t="s">
@@ -10999,7 +11012,7 @@
       <c r="F263" t="s">
         <v>257</v>
       </c>
-      <c r="G263" s="6" t="s">
+      <c r="G263" t="s">
         <v>216</v>
       </c>
       <c r="H263" t="s">
@@ -11044,7 +11057,7 @@
       <c r="F264" t="s">
         <v>257</v>
       </c>
-      <c r="G264" s="6" t="s">
+      <c r="G264" t="s">
         <v>216</v>
       </c>
       <c r="H264" t="s">
@@ -11124,7 +11137,7 @@
       <c r="F266" t="s">
         <v>257</v>
       </c>
-      <c r="G266" s="6" t="s">
+      <c r="G266" t="s">
         <v>216</v>
       </c>
       <c r="H266" t="s">
@@ -11163,7 +11176,7 @@
       <c r="F267" t="s">
         <v>210</v>
       </c>
-      <c r="G267" s="6" t="s">
+      <c r="G267" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11183,7 +11196,7 @@
       <c r="F268" t="s">
         <v>209</v>
       </c>
-      <c r="G268" s="6" t="s">
+      <c r="G268" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11200,7 +11213,7 @@
       <c r="E269" t="s">
         <v>163</v>
       </c>
-      <c r="G269" s="6" t="s">
+      <c r="G269" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11223,7 +11236,7 @@
       <c r="F270" t="s">
         <v>257</v>
       </c>
-      <c r="G270" s="6" t="s">
+      <c r="G270" t="s">
         <v>216</v>
       </c>
       <c r="H270" t="s">
@@ -11365,7 +11378,7 @@
       <c r="E277" t="s">
         <v>116</v>
       </c>
-      <c r="G277" s="6" t="s">
+      <c r="G277" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11388,7 +11401,7 @@
       <c r="F278" t="s">
         <v>210</v>
       </c>
-      <c r="G278" s="6" t="s">
+      <c r="G278" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11411,7 +11424,7 @@
       <c r="F279" t="s">
         <v>256</v>
       </c>
-      <c r="G279" s="6" t="s">
+      <c r="G279" t="s">
         <v>216</v>
       </c>
       <c r="H279" t="s">
@@ -11465,7 +11478,7 @@
       <c r="F280" t="s">
         <v>208</v>
       </c>
-      <c r="G280" s="6" t="s">
+      <c r="G280" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11482,7 +11495,7 @@
       <c r="E281" t="s">
         <v>171</v>
       </c>
-      <c r="G281" s="6" t="s">
+      <c r="G281" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11502,7 +11515,7 @@
       <c r="F282" t="s">
         <v>209</v>
       </c>
-      <c r="G282" s="6" t="s">
+      <c r="G282" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11519,7 +11532,7 @@
       <c r="E283" t="s">
         <v>165</v>
       </c>
-      <c r="G283" s="6" t="s">
+      <c r="G283" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11592,7 +11605,7 @@
       <c r="F287" t="s">
         <v>211</v>
       </c>
-      <c r="G287" s="6" t="s">
+      <c r="G287" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11609,12 +11622,12 @@
       <c r="E288" t="s">
         <v>78</v>
       </c>
-      <c r="G288" s="6" t="s">
+      <c r="G288" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>624</v>
       </c>
       <c r="D289" s="4" t="s">
@@ -11623,7 +11636,7 @@
       <c r="E289" t="s">
         <v>623</v>
       </c>
-      <c r="G289" s="6" t="s">
+      <c r="G289" t="s">
         <v>629</v>
       </c>
     </row>
@@ -11637,12 +11650,12 @@
       <c r="E290" t="s">
         <v>628</v>
       </c>
-      <c r="G290" s="6" t="s">
+      <c r="G290" t="s">
         <v>629</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T288">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T288">
     <sortCondition ref="E2:E288"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F20928-0E2E-534F-B862-644B3B272056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D30898-15D3-4B41-882E-B6067EA40C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2040" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="15000" yWindow="1340" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="641">
   <si>
     <t>Species used in Figures 1B and C</t>
   </si>
@@ -1944,6 +1944,12 @@
   </si>
   <si>
     <t>Florian Rossmann et al. (2015). The role of FlhF and HubP as polar landmark proteins inShewanella putrefaciens CN-32. Molecular Microbiology(2015)98(4), 727–742. http://dx.doi.org/10.1111/mmi.13152</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>Genbank suppressed; NJM replacing with Marinomonas mediterranea MMB-1, ATCC 700492</t>
   </si>
 </sst>
 </file>
@@ -5113,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5D3D-DF78-3F49-A41C-226229F9925D}">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8033,9 +8039,6 @@
       <c r="A123">
         <v>201</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="C123" t="s">
         <v>318</v>
       </c>
@@ -8053,6 +8056,9 @@
       <c r="A124">
         <v>265</v>
       </c>
+      <c r="B124" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="C124" t="s">
         <v>318</v>
       </c>
@@ -8286,9 +8292,6 @@
       <c r="A134">
         <v>42</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="C134" t="s">
         <v>321</v>
       </c>
@@ -8309,6 +8312,9 @@
       <c r="A135">
         <v>266</v>
       </c>
+      <c r="B135" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="C135" t="s">
         <v>321</v>
       </c>
@@ -8583,6 +8589,9 @@
       <c r="E147" t="s">
         <v>129</v>
       </c>
+      <c r="F147" t="s">
+        <v>640</v>
+      </c>
       <c r="H147" t="s">
         <v>266</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>76</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>439</v>
+        <v>639</v>
       </c>
       <c r="C229" t="s">
         <v>391</v>
@@ -10329,6 +10338,9 @@
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>285</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="C231" t="s">
         <v>391</v>

--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D30898-15D3-4B41-882E-B6067EA40C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673895D-55F2-8140-9016-FE8C7EB75629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="1340" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="14620" yWindow="500" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="merge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="642">
   <si>
     <t>Species used in Figures 1B and C</t>
   </si>
@@ -1937,9 +1948,6 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>Shewanella putrefaciensCN-32</t>
-  </si>
-  <si>
     <t>putrefaciens CN-32</t>
   </si>
   <si>
@@ -1950,6 +1958,12 @@
   </si>
   <si>
     <t>Genbank suppressed; NJM replacing with Marinomonas mediterranea MMB-1, ATCC 700492</t>
+  </si>
+  <si>
+    <t>Shewanella putrefaciens CN-32</t>
+  </si>
+  <si>
+    <t>covered by V583</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2013,7 +2027,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4827,7 +4840,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="P3:Q680">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P3:Q680">
     <sortCondition ref="P3:P680"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5119,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5D3D-DF78-3F49-A41C-226229F9925D}">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5219,7 +5232,7 @@
       <c r="G4" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" t="s">
         <v>216</v>
       </c>
       <c r="I4" t="s">
@@ -5261,7 +5274,7 @@
       <c r="G5" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>216</v>
       </c>
       <c r="I5" t="s">
@@ -5326,7 +5339,7 @@
       <c r="G7" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>216</v>
       </c>
       <c r="I7" t="s">
@@ -5380,7 +5393,7 @@
       <c r="G8" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" t="s">
         <v>216</v>
       </c>
       <c r="I8" t="s">
@@ -5538,13 +5551,13 @@
       <c r="E16" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>631</v>
       </c>
       <c r="G16" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5590,7 +5603,7 @@
       <c r="G18" t="s">
         <v>257</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" t="s">
         <v>216</v>
       </c>
       <c r="I18" t="s">
@@ -5740,7 +5753,7 @@
       <c r="E25" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5760,7 +5773,7 @@
       <c r="G26" t="s">
         <v>257</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" t="s">
         <v>216</v>
       </c>
       <c r="I26" t="s">
@@ -5808,7 +5821,7 @@
       <c r="G27" t="s">
         <v>257</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" t="s">
         <v>216</v>
       </c>
       <c r="I27" t="s">
@@ -5859,7 +5872,7 @@
       <c r="G28" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" t="s">
         <v>216</v>
       </c>
       <c r="I28" t="s">
@@ -5907,7 +5920,7 @@
       <c r="G29" t="s">
         <v>258</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" t="s">
         <v>216</v>
       </c>
       <c r="I29" t="s">
@@ -5964,7 +5977,7 @@
       <c r="G30" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" t="s">
         <v>216</v>
       </c>
       <c r="I30" t="s">
@@ -6018,7 +6031,7 @@
       <c r="G31" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" t="s">
         <v>216</v>
       </c>
       <c r="I31" t="s">
@@ -6063,7 +6076,7 @@
       <c r="G32" t="s">
         <v>256</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" t="s">
         <v>216</v>
       </c>
       <c r="I32" t="s">
@@ -6114,7 +6127,7 @@
       <c r="G33" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" t="s">
         <v>216</v>
       </c>
       <c r="I33" t="s">
@@ -6159,7 +6172,7 @@
       <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6182,7 +6195,7 @@
       <c r="G35" t="s">
         <v>256</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" t="s">
         <v>216</v>
       </c>
       <c r="I35" t="s">
@@ -6233,7 +6246,7 @@
       <c r="G36" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" t="s">
         <v>216</v>
       </c>
       <c r="I36" t="s">
@@ -6284,7 +6297,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" t="s">
         <v>216</v>
       </c>
       <c r="I37" t="s">
@@ -6335,7 +6348,7 @@
       <c r="E38" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6401,7 +6414,7 @@
       <c r="E41" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6478,7 +6491,7 @@
       <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6518,7 +6531,7 @@
       <c r="E48" t="s">
         <v>186</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6538,7 +6551,7 @@
       <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6558,7 +6571,7 @@
       <c r="G50" t="s">
         <v>209</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6601,7 +6614,7 @@
       <c r="E52" t="s">
         <v>168</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6618,7 +6631,7 @@
       <c r="E53" t="s">
         <v>168</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6705,7 +6718,7 @@
       <c r="E58" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6897,7 +6910,7 @@
       <c r="G68" t="s">
         <v>213</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6970,7 +6983,7 @@
       <c r="E72" t="s">
         <v>167</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6987,7 +7000,7 @@
       <c r="E73" t="s">
         <v>167</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7007,7 +7020,7 @@
       <c r="G74" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7024,7 +7037,7 @@
       <c r="E75" t="s">
         <v>164</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7044,7 +7057,7 @@
       <c r="E76" t="s">
         <v>182</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7067,7 +7080,7 @@
       <c r="G77" t="s">
         <v>210</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7355,7 +7368,7 @@
       <c r="E92" t="s">
         <v>96</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7421,7 +7434,7 @@
       <c r="G95" t="s">
         <v>256</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" t="s">
         <v>216</v>
       </c>
       <c r="I95" t="s">
@@ -7472,7 +7485,7 @@
       <c r="E96" t="s">
         <v>193</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H96" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7561,7 +7574,7 @@
       <c r="G101" t="s">
         <v>208</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H101" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7578,7 +7591,7 @@
       <c r="E102" t="s">
         <v>170</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7618,7 +7631,7 @@
       <c r="G104" t="s">
         <v>208</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H104" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7638,7 +7651,7 @@
       <c r="E105" t="s">
         <v>175</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H105" t="s">
         <v>176</v>
       </c>
       <c r="T105" t="s">
@@ -7661,7 +7674,7 @@
       <c r="E106" t="s">
         <v>166</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H106" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7678,7 +7691,7 @@
       <c r="E107" t="s">
         <v>174</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H107" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7698,7 +7711,7 @@
       <c r="G108" t="s">
         <v>256</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H108" t="s">
         <v>216</v>
       </c>
       <c r="I108" t="s">
@@ -7779,7 +7792,7 @@
       <c r="G111" t="s">
         <v>256</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H111" t="s">
         <v>216</v>
       </c>
       <c r="I111" t="s">
@@ -7985,7 +7998,7 @@
       <c r="G120" t="s">
         <v>213</v>
       </c>
-      <c r="H120" s="6" t="s">
+      <c r="H120" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8048,7 +8061,7 @@
       <c r="E123" t="s">
         <v>190</v>
       </c>
-      <c r="H123" s="6" t="s">
+      <c r="H123" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8071,7 +8084,7 @@
       <c r="G124" t="s">
         <v>256</v>
       </c>
-      <c r="H124" s="6" t="s">
+      <c r="H124" t="s">
         <v>216</v>
       </c>
       <c r="I124" t="s">
@@ -8201,7 +8214,7 @@
       <c r="G129" t="s">
         <v>210</v>
       </c>
-      <c r="H129" s="6" t="s">
+      <c r="H129" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8267,7 +8280,7 @@
       <c r="G132" t="s">
         <v>210</v>
       </c>
-      <c r="H132" s="6" t="s">
+      <c r="H132" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8284,7 +8297,7 @@
       <c r="E133" t="s">
         <v>161</v>
       </c>
-      <c r="H133" s="6" t="s">
+      <c r="H133" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8327,7 +8340,7 @@
       <c r="G135" t="s">
         <v>258</v>
       </c>
-      <c r="H135" s="6" t="s">
+      <c r="H135" t="s">
         <v>216</v>
       </c>
       <c r="I135" t="s">
@@ -8384,7 +8397,7 @@
       <c r="E136" t="s">
         <v>185</v>
       </c>
-      <c r="H136" s="6" t="s">
+      <c r="H136" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8401,7 +8414,7 @@
       <c r="E137" t="s">
         <v>184</v>
       </c>
-      <c r="H137" s="6" t="s">
+      <c r="H137" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8590,7 +8603,7 @@
         <v>129</v>
       </c>
       <c r="F147" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H147" t="s">
         <v>266</v>
@@ -8615,7 +8628,7 @@
       <c r="G148" t="s">
         <v>212</v>
       </c>
-      <c r="H148" s="6" t="s">
+      <c r="H148" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9070,7 +9083,7 @@
       <c r="G173" t="s">
         <v>256</v>
       </c>
-      <c r="H173" s="6" t="s">
+      <c r="H173" t="s">
         <v>216</v>
       </c>
       <c r="I173" t="s">
@@ -9167,7 +9180,7 @@
       <c r="G176" t="s">
         <v>260</v>
       </c>
-      <c r="H176" s="6" t="s">
+      <c r="H176" t="s">
         <v>216</v>
       </c>
       <c r="I176" t="s">
@@ -9304,7 +9317,7 @@
       <c r="G181" t="s">
         <v>210</v>
       </c>
-      <c r="H181" s="6" t="s">
+      <c r="H181" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9324,7 +9337,7 @@
       <c r="G182" t="s">
         <v>209</v>
       </c>
-      <c r="H182" s="6" t="s">
+      <c r="H182" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9341,7 +9354,7 @@
       <c r="E183" t="s">
         <v>162</v>
       </c>
-      <c r="H183" s="6" t="s">
+      <c r="H183" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9409,7 +9422,7 @@
       <c r="G187" t="s">
         <v>208</v>
       </c>
-      <c r="H187" s="6" t="s">
+      <c r="H187" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9426,7 +9439,7 @@
       <c r="E188" t="s">
         <v>172</v>
       </c>
-      <c r="H188" s="6" t="s">
+      <c r="H188" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9739,7 +9752,7 @@
       <c r="G205" t="s">
         <v>210</v>
       </c>
-      <c r="H205" s="6" t="s">
+      <c r="H205" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9762,7 +9775,7 @@
       <c r="G206" t="s">
         <v>256</v>
       </c>
-      <c r="H206" s="6" t="s">
+      <c r="H206" t="s">
         <v>216</v>
       </c>
       <c r="I206" t="s">
@@ -9813,7 +9826,7 @@
       <c r="G207" t="s">
         <v>256</v>
       </c>
-      <c r="H207" s="6" t="s">
+      <c r="H207" t="s">
         <v>216</v>
       </c>
       <c r="I207" t="s">
@@ -9947,7 +9960,7 @@
       <c r="G213" t="s">
         <v>256</v>
       </c>
-      <c r="H213" s="6" t="s">
+      <c r="H213" t="s">
         <v>216</v>
       </c>
       <c r="I213" t="s">
@@ -10026,7 +10039,7 @@
       <c r="E216" t="s">
         <v>189</v>
       </c>
-      <c r="H216" s="6" t="s">
+      <c r="H216" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10049,7 +10062,7 @@
       <c r="G217" t="s">
         <v>213</v>
       </c>
-      <c r="H217" s="6" t="s">
+      <c r="H217" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10109,7 +10122,7 @@
       <c r="E220" t="s">
         <v>188</v>
       </c>
-      <c r="H220" s="6" t="s">
+      <c r="H220" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10149,7 +10162,7 @@
       <c r="G222" t="s">
         <v>208</v>
       </c>
-      <c r="H222" s="6" t="s">
+      <c r="H222" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10166,7 +10179,7 @@
       <c r="E223" t="s">
         <v>173</v>
       </c>
-      <c r="H223" s="6" t="s">
+      <c r="H223" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10189,7 +10202,7 @@
       <c r="G224" t="s">
         <v>256</v>
       </c>
-      <c r="H224" s="6" t="s">
+      <c r="H224" t="s">
         <v>216</v>
       </c>
       <c r="I224" t="s">
@@ -10297,7 +10310,7 @@
         <v>76</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C229" t="s">
         <v>391</v>
@@ -10331,7 +10344,7 @@
       <c r="G230" t="s">
         <v>210</v>
       </c>
-      <c r="H230" s="6" t="s">
+      <c r="H230" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10354,7 +10367,7 @@
       <c r="G231" t="s">
         <v>257</v>
       </c>
-      <c r="H231" s="6" t="s">
+      <c r="H231" t="s">
         <v>216</v>
       </c>
       <c r="I231" t="s">
@@ -10606,7 +10619,7 @@
       <c r="G244" t="s">
         <v>212</v>
       </c>
-      <c r="H244" s="6" t="s">
+      <c r="H244" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10629,7 +10642,7 @@
       <c r="G245" t="s">
         <v>256</v>
       </c>
-      <c r="H245" s="6" t="s">
+      <c r="H245" t="s">
         <v>216</v>
       </c>
       <c r="I245" t="s">
@@ -10671,7 +10684,7 @@
       <c r="G246" t="s">
         <v>256</v>
       </c>
-      <c r="H246" s="6" t="s">
+      <c r="H246" t="s">
         <v>216</v>
       </c>
       <c r="I246" t="s">
@@ -10753,7 +10766,7 @@
       <c r="E249" t="s">
         <v>180</v>
       </c>
-      <c r="H249" s="6" t="s">
+      <c r="H249" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10796,7 +10809,7 @@
       <c r="E251" t="s">
         <v>183</v>
       </c>
-      <c r="H251" s="6" t="s">
+      <c r="H251" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10985,7 +10998,7 @@
       <c r="E261" t="s">
         <v>187</v>
       </c>
-      <c r="H261" s="6" t="s">
+      <c r="H261" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11005,7 +11018,7 @@
       <c r="G262" t="s">
         <v>258</v>
       </c>
-      <c r="H262" s="6" t="s">
+      <c r="H262" t="s">
         <v>216</v>
       </c>
       <c r="I262" t="s">
@@ -11056,7 +11069,7 @@
       <c r="G263" t="s">
         <v>257</v>
       </c>
-      <c r="H263" s="6" t="s">
+      <c r="H263" t="s">
         <v>216</v>
       </c>
       <c r="I263" t="s">
@@ -11101,7 +11114,7 @@
       <c r="G264" t="s">
         <v>257</v>
       </c>
-      <c r="H264" s="6" t="s">
+      <c r="H264" t="s">
         <v>216</v>
       </c>
       <c r="I264" t="s">
@@ -11181,7 +11194,7 @@
       <c r="G266" t="s">
         <v>257</v>
       </c>
-      <c r="H266" s="6" t="s">
+      <c r="H266" t="s">
         <v>216</v>
       </c>
       <c r="I266" t="s">
@@ -11220,7 +11233,7 @@
       <c r="G267" t="s">
         <v>210</v>
       </c>
-      <c r="H267" s="6" t="s">
+      <c r="H267" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11240,7 +11253,7 @@
       <c r="G268" t="s">
         <v>209</v>
       </c>
-      <c r="H268" s="6" t="s">
+      <c r="H268" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11257,7 +11270,7 @@
       <c r="E269" t="s">
         <v>163</v>
       </c>
-      <c r="H269" s="6" t="s">
+      <c r="H269" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11280,7 +11293,7 @@
       <c r="G270" t="s">
         <v>257</v>
       </c>
-      <c r="H270" s="6" t="s">
+      <c r="H270" t="s">
         <v>216</v>
       </c>
       <c r="I270" t="s">
@@ -11422,7 +11435,7 @@
       <c r="E277" t="s">
         <v>116</v>
       </c>
-      <c r="H277" s="6" t="s">
+      <c r="H277" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11445,7 +11458,7 @@
       <c r="G278" t="s">
         <v>210</v>
       </c>
-      <c r="H278" s="6" t="s">
+      <c r="H278" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11468,7 +11481,7 @@
       <c r="G279" t="s">
         <v>256</v>
       </c>
-      <c r="H279" s="6" t="s">
+      <c r="H279" t="s">
         <v>216</v>
       </c>
       <c r="I279" t="s">
@@ -11522,7 +11535,7 @@
       <c r="G280" t="s">
         <v>208</v>
       </c>
-      <c r="H280" s="6" t="s">
+      <c r="H280" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11539,7 +11552,7 @@
       <c r="E281" t="s">
         <v>171</v>
       </c>
-      <c r="H281" s="6" t="s">
+      <c r="H281" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11559,7 +11572,7 @@
       <c r="G282" t="s">
         <v>209</v>
       </c>
-      <c r="H282" s="6" t="s">
+      <c r="H282" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11576,7 +11589,7 @@
       <c r="E283" t="s">
         <v>165</v>
       </c>
-      <c r="H283" s="6" t="s">
+      <c r="H283" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11649,7 +11662,7 @@
       <c r="G287" t="s">
         <v>211</v>
       </c>
-      <c r="H287" s="6" t="s">
+      <c r="H287" t="s">
         <v>176</v>
       </c>
     </row>
@@ -11666,12 +11679,12 @@
       <c r="E288" t="s">
         <v>78</v>
       </c>
-      <c r="H288" s="6" t="s">
+      <c r="H288" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="289" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>623</v>
       </c>
       <c r="D289" s="4" t="s">
@@ -11680,7 +11693,7 @@
       <c r="E289" t="s">
         <v>622</v>
       </c>
-      <c r="H289" s="6" t="s">
+      <c r="H289" t="s">
         <v>628</v>
       </c>
     </row>
@@ -11688,13 +11701,16 @@
       <c r="C290" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D290" s="6" t="s">
         <v>626</v>
       </c>
       <c r="E290" t="s">
         <v>627</v>
       </c>
-      <c r="H290" s="6" t="s">
+      <c r="G290" t="s">
+        <v>641</v>
+      </c>
+      <c r="H290" t="s">
         <v>628</v>
       </c>
     </row>
@@ -11702,18 +11718,18 @@
       <c r="C291" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D291" s="7" t="s">
+      <c r="D291" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E291" t="s">
+        <v>640</v>
+      </c>
+      <c r="H291" t="s">
         <v>637</v>
       </c>
-      <c r="E291" t="s">
-        <v>636</v>
-      </c>
-      <c r="H291" s="6" t="s">
-        <v>638</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:U288">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U288">
     <sortCondition ref="E2:E288"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673895D-55F2-8140-9016-FE8C7EB75629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5EECD8-7D80-254D-81E2-41430D7E2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="500" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="14600" yWindow="500" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/flag/AQB_classification/2023-07-16_add.xlsx
+++ b/flag/AQB_classification/2023-07-16_add.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5EECD8-7D80-254D-81E2-41430D7E2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F73878-67BC-3B4B-9973-40BE9191E739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="500" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
+    <workbookView xWindow="14120" yWindow="500" windowWidth="36200" windowHeight="23120" activeTab="2" xr2:uid="{FBB23AE7-A21D-2740-9EDC-4927A339D3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="merge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="643">
   <si>
     <t>Species used in Figures 1B and C</t>
   </si>
@@ -1964,6 +1953,9 @@
   </si>
   <si>
     <t>covered by V583</t>
+  </si>
+  <si>
+    <t>suppressed</t>
   </si>
 </sst>
 </file>
@@ -1994,12 +1986,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2014,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2030,6 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4840,7 +4839,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P3:Q680">
+  <sortState ref="P3:Q680">
     <sortCondition ref="P3:P680"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5D3D-DF78-3F49-A41C-226229F9925D}">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="G249" sqref="G249"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6025,13 +6024,14 @@
       <c r="D31" t="s">
         <v>274</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="7" t="s">
         <v>216</v>
       </c>
       <c r="I31" t="s">
@@ -11724,12 +11724,15 @@
       <c r="E291" t="s">
         <v>640</v>
       </c>
+      <c r="G291" t="s">
+        <v>642</v>
+      </c>
       <c r="H291" t="s">
         <v>637</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U288">
+  <sortState ref="A2:U288">
     <sortCondition ref="E2:E288"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
